--- a/010-外部設計/015-イベント定義書.xlsx
+++ b/010-外部設計/015-イベント定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\010-外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BB64A5-2D2F-49D8-B904-9B429A5E6280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4369061D-ABB1-405F-9A1D-EA7953F53667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="306">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -1264,35 +1264,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>※記述例です。要件定義に合わせ</t>
-    <rPh sb="1" eb="3">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>て、変更を行ってください。</t>
-    <rPh sb="2" eb="4">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>対象テーブル: users</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
@@ -2783,19 +2754,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>↑検索画面なのか検索結果画面なのか</t>
-    <rPh sb="1" eb="5">
-      <t>ケンサクガメン</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ケンサクケッカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>　商品検索結果画面に遷移し、該当商品情報（備考記載）を表示する</t>
     <rPh sb="10" eb="12">
       <t>センイ</t>
@@ -3026,28 +2984,6 @@
     <t>4,単価</t>
     <rPh sb="2" eb="4">
       <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>←モックを見ると、商品詳細画面では価格、カート画面では単価と表記されている</t>
-    <rPh sb="5" eb="6">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="9" eb="15">
-      <t>ショウヒンショウサイガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウキ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -4362,53 +4298,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4446,8 +4340,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4472,60 +4421,35 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4569,35 +4493,47 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5229,25 +5165,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="77" t="s">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -5263,49 +5199,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="79" t="s">
+      <c r="AF3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="80" t="s">
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="80"/>
-      <c r="AS3" s="80"/>
-      <c r="AT3" s="80"/>
-      <c r="AU3" s="80"/>
-      <c r="AV3" s="80"/>
-      <c r="AW3" s="80"/>
-      <c r="AX3" s="80"/>
-      <c r="AY3" s="80"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="89"/>
+      <c r="AO3" s="89"/>
+      <c r="AP3" s="89"/>
+      <c r="AQ3" s="89"/>
+      <c r="AR3" s="89"/>
+      <c r="AS3" s="89"/>
+      <c r="AT3" s="89"/>
+      <c r="AU3" s="89"/>
+      <c r="AV3" s="89"/>
+      <c r="AW3" s="89"/>
+      <c r="AX3" s="89"/>
+      <c r="AY3" s="89"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -5321,26 +5257,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="80"/>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="80"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -5946,44 +5882,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="82"/>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="82"/>
-      <c r="AK16" s="82"/>
-      <c r="AL16" s="82"/>
-      <c r="AM16" s="82"/>
-      <c r="AN16" s="82"/>
-      <c r="AO16" s="82"/>
-      <c r="AP16" s="82"/>
-      <c r="AQ16" s="82"/>
-      <c r="AR16" s="83"/>
+      <c r="I16" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="95"/>
+      <c r="AJ16" s="95"/>
+      <c r="AK16" s="95"/>
+      <c r="AL16" s="95"/>
+      <c r="AM16" s="95"/>
+      <c r="AN16" s="95"/>
+      <c r="AO16" s="95"/>
+      <c r="AP16" s="95"/>
+      <c r="AQ16" s="95"/>
+      <c r="AR16" s="96"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -6002,42 +5938,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="85"/>
-      <c r="AC17" s="85"/>
-      <c r="AD17" s="85"/>
-      <c r="AE17" s="85"/>
-      <c r="AF17" s="85"/>
-      <c r="AG17" s="85"/>
-      <c r="AH17" s="85"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="85"/>
-      <c r="AK17" s="85"/>
-      <c r="AL17" s="85"/>
-      <c r="AM17" s="85"/>
-      <c r="AN17" s="85"/>
-      <c r="AO17" s="85"/>
-      <c r="AP17" s="85"/>
-      <c r="AQ17" s="85"/>
-      <c r="AR17" s="86"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="98"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="98"/>
+      <c r="AJ17" s="98"/>
+      <c r="AK17" s="98"/>
+      <c r="AL17" s="98"/>
+      <c r="AM17" s="98"/>
+      <c r="AN17" s="98"/>
+      <c r="AO17" s="98"/>
+      <c r="AP17" s="98"/>
+      <c r="AQ17" s="98"/>
+      <c r="AR17" s="99"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -6056,42 +5992,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="85"/>
-      <c r="AB18" s="85"/>
-      <c r="AC18" s="85"/>
-      <c r="AD18" s="85"/>
-      <c r="AE18" s="85"/>
-      <c r="AF18" s="85"/>
-      <c r="AG18" s="85"/>
-      <c r="AH18" s="85"/>
-      <c r="AI18" s="85"/>
-      <c r="AJ18" s="85"/>
-      <c r="AK18" s="85"/>
-      <c r="AL18" s="85"/>
-      <c r="AM18" s="85"/>
-      <c r="AN18" s="85"/>
-      <c r="AO18" s="85"/>
-      <c r="AP18" s="85"/>
-      <c r="AQ18" s="85"/>
-      <c r="AR18" s="86"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="98"/>
+      <c r="AJ18" s="98"/>
+      <c r="AK18" s="98"/>
+      <c r="AL18" s="98"/>
+      <c r="AM18" s="98"/>
+      <c r="AN18" s="98"/>
+      <c r="AO18" s="98"/>
+      <c r="AP18" s="98"/>
+      <c r="AQ18" s="98"/>
+      <c r="AR18" s="99"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -6110,42 +6046,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="85"/>
-      <c r="AB19" s="85"/>
-      <c r="AC19" s="85"/>
-      <c r="AD19" s="85"/>
-      <c r="AE19" s="85"/>
-      <c r="AF19" s="85"/>
-      <c r="AG19" s="85"/>
-      <c r="AH19" s="85"/>
-      <c r="AI19" s="85"/>
-      <c r="AJ19" s="85"/>
-      <c r="AK19" s="85"/>
-      <c r="AL19" s="85"/>
-      <c r="AM19" s="85"/>
-      <c r="AN19" s="85"/>
-      <c r="AO19" s="85"/>
-      <c r="AP19" s="85"/>
-      <c r="AQ19" s="85"/>
-      <c r="AR19" s="86"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="98"/>
+      <c r="AH19" s="98"/>
+      <c r="AI19" s="98"/>
+      <c r="AJ19" s="98"/>
+      <c r="AK19" s="98"/>
+      <c r="AL19" s="98"/>
+      <c r="AM19" s="98"/>
+      <c r="AN19" s="98"/>
+      <c r="AO19" s="98"/>
+      <c r="AP19" s="98"/>
+      <c r="AQ19" s="98"/>
+      <c r="AR19" s="99"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -6164,42 +6100,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="85"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="85"/>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="85"/>
-      <c r="AB20" s="85"/>
-      <c r="AC20" s="85"/>
-      <c r="AD20" s="85"/>
-      <c r="AE20" s="85"/>
-      <c r="AF20" s="85"/>
-      <c r="AG20" s="85"/>
-      <c r="AH20" s="85"/>
-      <c r="AI20" s="85"/>
-      <c r="AJ20" s="85"/>
-      <c r="AK20" s="85"/>
-      <c r="AL20" s="85"/>
-      <c r="AM20" s="85"/>
-      <c r="AN20" s="85"/>
-      <c r="AO20" s="85"/>
-      <c r="AP20" s="85"/>
-      <c r="AQ20" s="85"/>
-      <c r="AR20" s="86"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="98"/>
+      <c r="AH20" s="98"/>
+      <c r="AI20" s="98"/>
+      <c r="AJ20" s="98"/>
+      <c r="AK20" s="98"/>
+      <c r="AL20" s="98"/>
+      <c r="AM20" s="98"/>
+      <c r="AN20" s="98"/>
+      <c r="AO20" s="98"/>
+      <c r="AP20" s="98"/>
+      <c r="AQ20" s="98"/>
+      <c r="AR20" s="99"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -6218,42 +6154,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="85"/>
-      <c r="AD21" s="85"/>
-      <c r="AE21" s="85"/>
-      <c r="AF21" s="85"/>
-      <c r="AG21" s="85"/>
-      <c r="AH21" s="85"/>
-      <c r="AI21" s="85"/>
-      <c r="AJ21" s="85"/>
-      <c r="AK21" s="85"/>
-      <c r="AL21" s="85"/>
-      <c r="AM21" s="85"/>
-      <c r="AN21" s="85"/>
-      <c r="AO21" s="85"/>
-      <c r="AP21" s="85"/>
-      <c r="AQ21" s="85"/>
-      <c r="AR21" s="86"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="98"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="98"/>
+      <c r="AJ21" s="98"/>
+      <c r="AK21" s="98"/>
+      <c r="AL21" s="98"/>
+      <c r="AM21" s="98"/>
+      <c r="AN21" s="98"/>
+      <c r="AO21" s="98"/>
+      <c r="AP21" s="98"/>
+      <c r="AQ21" s="98"/>
+      <c r="AR21" s="99"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -6272,42 +6208,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="85"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="85"/>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="85"/>
-      <c r="AJ22" s="85"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="85"/>
-      <c r="AM22" s="85"/>
-      <c r="AN22" s="85"/>
-      <c r="AO22" s="85"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="85"/>
-      <c r="AR22" s="86"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="98"/>
+      <c r="AJ22" s="98"/>
+      <c r="AK22" s="98"/>
+      <c r="AL22" s="98"/>
+      <c r="AM22" s="98"/>
+      <c r="AN22" s="98"/>
+      <c r="AO22" s="98"/>
+      <c r="AP22" s="98"/>
+      <c r="AQ22" s="98"/>
+      <c r="AR22" s="99"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -6326,42 +6262,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="85"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="85"/>
-      <c r="AH23" s="85"/>
-      <c r="AI23" s="85"/>
-      <c r="AJ23" s="85"/>
-      <c r="AK23" s="85"/>
-      <c r="AL23" s="85"/>
-      <c r="AM23" s="85"/>
-      <c r="AN23" s="85"/>
-      <c r="AO23" s="85"/>
-      <c r="AP23" s="85"/>
-      <c r="AQ23" s="85"/>
-      <c r="AR23" s="86"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="98"/>
+      <c r="AH23" s="98"/>
+      <c r="AI23" s="98"/>
+      <c r="AJ23" s="98"/>
+      <c r="AK23" s="98"/>
+      <c r="AL23" s="98"/>
+      <c r="AM23" s="98"/>
+      <c r="AN23" s="98"/>
+      <c r="AO23" s="98"/>
+      <c r="AP23" s="98"/>
+      <c r="AQ23" s="98"/>
+      <c r="AR23" s="99"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -6380,42 +6316,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="85"/>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="85"/>
-      <c r="AA24" s="85"/>
-      <c r="AB24" s="85"/>
-      <c r="AC24" s="85"/>
-      <c r="AD24" s="85"/>
-      <c r="AE24" s="85"/>
-      <c r="AF24" s="85"/>
-      <c r="AG24" s="85"/>
-      <c r="AH24" s="85"/>
-      <c r="AI24" s="85"/>
-      <c r="AJ24" s="85"/>
-      <c r="AK24" s="85"/>
-      <c r="AL24" s="85"/>
-      <c r="AM24" s="85"/>
-      <c r="AN24" s="85"/>
-      <c r="AO24" s="85"/>
-      <c r="AP24" s="85"/>
-      <c r="AQ24" s="85"/>
-      <c r="AR24" s="86"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="98"/>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="98"/>
+      <c r="AJ24" s="98"/>
+      <c r="AK24" s="98"/>
+      <c r="AL24" s="98"/>
+      <c r="AM24" s="98"/>
+      <c r="AN24" s="98"/>
+      <c r="AO24" s="98"/>
+      <c r="AP24" s="98"/>
+      <c r="AQ24" s="98"/>
+      <c r="AR24" s="99"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -6434,42 +6370,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="85"/>
-      <c r="W25" s="85"/>
-      <c r="X25" s="85"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="85"/>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="85"/>
-      <c r="AG25" s="85"/>
-      <c r="AH25" s="85"/>
-      <c r="AI25" s="85"/>
-      <c r="AJ25" s="85"/>
-      <c r="AK25" s="85"/>
-      <c r="AL25" s="85"/>
-      <c r="AM25" s="85"/>
-      <c r="AN25" s="85"/>
-      <c r="AO25" s="85"/>
-      <c r="AP25" s="85"/>
-      <c r="AQ25" s="85"/>
-      <c r="AR25" s="86"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="98"/>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="98"/>
+      <c r="AJ25" s="98"/>
+      <c r="AK25" s="98"/>
+      <c r="AL25" s="98"/>
+      <c r="AM25" s="98"/>
+      <c r="AN25" s="98"/>
+      <c r="AO25" s="98"/>
+      <c r="AP25" s="98"/>
+      <c r="AQ25" s="98"/>
+      <c r="AR25" s="99"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -6488,42 +6424,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="85"/>
-      <c r="W26" s="85"/>
-      <c r="X26" s="85"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="85"/>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="85"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="85"/>
-      <c r="AF26" s="85"/>
-      <c r="AG26" s="85"/>
-      <c r="AH26" s="85"/>
-      <c r="AI26" s="85"/>
-      <c r="AJ26" s="85"/>
-      <c r="AK26" s="85"/>
-      <c r="AL26" s="85"/>
-      <c r="AM26" s="85"/>
-      <c r="AN26" s="85"/>
-      <c r="AO26" s="85"/>
-      <c r="AP26" s="85"/>
-      <c r="AQ26" s="85"/>
-      <c r="AR26" s="86"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="98"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="98"/>
+      <c r="AK26" s="98"/>
+      <c r="AL26" s="98"/>
+      <c r="AM26" s="98"/>
+      <c r="AN26" s="98"/>
+      <c r="AO26" s="98"/>
+      <c r="AP26" s="98"/>
+      <c r="AQ26" s="98"/>
+      <c r="AR26" s="99"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -6542,42 +6478,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="85"/>
-      <c r="W27" s="85"/>
-      <c r="X27" s="85"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="85"/>
-      <c r="AA27" s="85"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="85"/>
-      <c r="AH27" s="85"/>
-      <c r="AI27" s="85"/>
-      <c r="AJ27" s="85"/>
-      <c r="AK27" s="85"/>
-      <c r="AL27" s="85"/>
-      <c r="AM27" s="85"/>
-      <c r="AN27" s="85"/>
-      <c r="AO27" s="85"/>
-      <c r="AP27" s="85"/>
-      <c r="AQ27" s="85"/>
-      <c r="AR27" s="86"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="98"/>
+      <c r="AH27" s="98"/>
+      <c r="AI27" s="98"/>
+      <c r="AJ27" s="98"/>
+      <c r="AK27" s="98"/>
+      <c r="AL27" s="98"/>
+      <c r="AM27" s="98"/>
+      <c r="AN27" s="98"/>
+      <c r="AO27" s="98"/>
+      <c r="AP27" s="98"/>
+      <c r="AQ27" s="98"/>
+      <c r="AR27" s="99"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -6596,42 +6532,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="85"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="85"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="85"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="85"/>
-      <c r="AD28" s="85"/>
-      <c r="AE28" s="85"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="85"/>
-      <c r="AH28" s="85"/>
-      <c r="AI28" s="85"/>
-      <c r="AJ28" s="85"/>
-      <c r="AK28" s="85"/>
-      <c r="AL28" s="85"/>
-      <c r="AM28" s="85"/>
-      <c r="AN28" s="85"/>
-      <c r="AO28" s="85"/>
-      <c r="AP28" s="85"/>
-      <c r="AQ28" s="85"/>
-      <c r="AR28" s="86"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="98"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="98"/>
+      <c r="AH28" s="98"/>
+      <c r="AI28" s="98"/>
+      <c r="AJ28" s="98"/>
+      <c r="AK28" s="98"/>
+      <c r="AL28" s="98"/>
+      <c r="AM28" s="98"/>
+      <c r="AN28" s="98"/>
+      <c r="AO28" s="98"/>
+      <c r="AP28" s="98"/>
+      <c r="AQ28" s="98"/>
+      <c r="AR28" s="99"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -6650,42 +6586,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="88"/>
-      <c r="AA29" s="88"/>
-      <c r="AB29" s="88"/>
-      <c r="AC29" s="88"/>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="88"/>
-      <c r="AH29" s="88"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="88"/>
-      <c r="AK29" s="88"/>
-      <c r="AL29" s="88"/>
-      <c r="AM29" s="88"/>
-      <c r="AN29" s="88"/>
-      <c r="AO29" s="88"/>
-      <c r="AP29" s="88"/>
-      <c r="AQ29" s="88"/>
-      <c r="AR29" s="89"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="101"/>
+      <c r="Z29" s="101"/>
+      <c r="AA29" s="101"/>
+      <c r="AB29" s="101"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="101"/>
+      <c r="AE29" s="101"/>
+      <c r="AF29" s="101"/>
+      <c r="AG29" s="101"/>
+      <c r="AH29" s="101"/>
+      <c r="AI29" s="101"/>
+      <c r="AJ29" s="101"/>
+      <c r="AK29" s="101"/>
+      <c r="AL29" s="101"/>
+      <c r="AM29" s="101"/>
+      <c r="AN29" s="101"/>
+      <c r="AO29" s="101"/>
+      <c r="AP29" s="101"/>
+      <c r="AQ29" s="101"/>
+      <c r="AR29" s="102"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -7457,30 +7393,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="79" t="s">
+      <c r="AF45" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="79"/>
-      <c r="AH45" s="79"/>
-      <c r="AI45" s="79"/>
-      <c r="AJ45" s="79"/>
-      <c r="AK45" s="79"/>
-      <c r="AL45" s="80" t="s">
+      <c r="AG45" s="76"/>
+      <c r="AH45" s="76"/>
+      <c r="AI45" s="76"/>
+      <c r="AJ45" s="76"/>
+      <c r="AK45" s="76"/>
+      <c r="AL45" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="AM45" s="80"/>
-      <c r="AN45" s="80"/>
-      <c r="AO45" s="80"/>
-      <c r="AP45" s="80"/>
-      <c r="AQ45" s="80"/>
-      <c r="AR45" s="80"/>
-      <c r="AS45" s="80"/>
-      <c r="AT45" s="80"/>
-      <c r="AU45" s="80"/>
-      <c r="AV45" s="80"/>
-      <c r="AW45" s="80"/>
-      <c r="AX45" s="80"/>
-      <c r="AY45" s="80"/>
+      <c r="AM45" s="89"/>
+      <c r="AN45" s="89"/>
+      <c r="AO45" s="89"/>
+      <c r="AP45" s="89"/>
+      <c r="AQ45" s="89"/>
+      <c r="AR45" s="89"/>
+      <c r="AS45" s="89"/>
+      <c r="AT45" s="89"/>
+      <c r="AU45" s="89"/>
+      <c r="AV45" s="89"/>
+      <c r="AW45" s="89"/>
+      <c r="AX45" s="89"/>
+      <c r="AY45" s="89"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -7515,26 +7451,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="79"/>
-      <c r="AG46" s="79"/>
-      <c r="AH46" s="79"/>
-      <c r="AI46" s="79"/>
-      <c r="AJ46" s="79"/>
-      <c r="AK46" s="79"/>
-      <c r="AL46" s="80"/>
-      <c r="AM46" s="80"/>
-      <c r="AN46" s="80"/>
-      <c r="AO46" s="80"/>
-      <c r="AP46" s="80"/>
-      <c r="AQ46" s="80"/>
-      <c r="AR46" s="80"/>
-      <c r="AS46" s="80"/>
-      <c r="AT46" s="80"/>
-      <c r="AU46" s="80"/>
-      <c r="AV46" s="80"/>
-      <c r="AW46" s="80"/>
-      <c r="AX46" s="80"/>
-      <c r="AY46" s="80"/>
+      <c r="AF46" s="76"/>
+      <c r="AG46" s="76"/>
+      <c r="AH46" s="76"/>
+      <c r="AI46" s="76"/>
+      <c r="AJ46" s="76"/>
+      <c r="AK46" s="76"/>
+      <c r="AL46" s="89"/>
+      <c r="AM46" s="89"/>
+      <c r="AN46" s="89"/>
+      <c r="AO46" s="89"/>
+      <c r="AP46" s="89"/>
+      <c r="AQ46" s="89"/>
+      <c r="AR46" s="89"/>
+      <c r="AS46" s="89"/>
+      <c r="AT46" s="89"/>
+      <c r="AU46" s="89"/>
+      <c r="AV46" s="89"/>
+      <c r="AW46" s="89"/>
+      <c r="AX46" s="89"/>
+      <c r="AY46" s="89"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -7569,30 +7505,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="79" t="s">
+      <c r="AF47" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="79"/>
-      <c r="AH47" s="79"/>
-      <c r="AI47" s="79"/>
-      <c r="AJ47" s="79"/>
-      <c r="AK47" s="79"/>
-      <c r="AL47" s="90">
+      <c r="AG47" s="76"/>
+      <c r="AH47" s="76"/>
+      <c r="AI47" s="76"/>
+      <c r="AJ47" s="76"/>
+      <c r="AK47" s="76"/>
+      <c r="AL47" s="75">
         <v>45548</v>
       </c>
-      <c r="AM47" s="90"/>
-      <c r="AN47" s="90"/>
-      <c r="AO47" s="90"/>
-      <c r="AP47" s="90"/>
-      <c r="AQ47" s="90"/>
-      <c r="AR47" s="90"/>
-      <c r="AS47" s="90"/>
-      <c r="AT47" s="90"/>
-      <c r="AU47" s="90"/>
-      <c r="AV47" s="90"/>
-      <c r="AW47" s="90"/>
-      <c r="AX47" s="90"/>
-      <c r="AY47" s="90"/>
+      <c r="AM47" s="75"/>
+      <c r="AN47" s="75"/>
+      <c r="AO47" s="75"/>
+      <c r="AP47" s="75"/>
+      <c r="AQ47" s="75"/>
+      <c r="AR47" s="75"/>
+      <c r="AS47" s="75"/>
+      <c r="AT47" s="75"/>
+      <c r="AU47" s="75"/>
+      <c r="AV47" s="75"/>
+      <c r="AW47" s="75"/>
+      <c r="AX47" s="75"/>
+      <c r="AY47" s="75"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -7627,26 +7563,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="79"/>
-      <c r="AG48" s="79"/>
-      <c r="AH48" s="79"/>
-      <c r="AI48" s="79"/>
-      <c r="AJ48" s="79"/>
-      <c r="AK48" s="79"/>
-      <c r="AL48" s="90"/>
-      <c r="AM48" s="90"/>
-      <c r="AN48" s="90"/>
-      <c r="AO48" s="90"/>
-      <c r="AP48" s="90"/>
-      <c r="AQ48" s="90"/>
-      <c r="AR48" s="90"/>
-      <c r="AS48" s="90"/>
-      <c r="AT48" s="90"/>
-      <c r="AU48" s="90"/>
-      <c r="AV48" s="90"/>
-      <c r="AW48" s="90"/>
-      <c r="AX48" s="90"/>
-      <c r="AY48" s="90"/>
+      <c r="AF48" s="76"/>
+      <c r="AG48" s="76"/>
+      <c r="AH48" s="76"/>
+      <c r="AI48" s="76"/>
+      <c r="AJ48" s="76"/>
+      <c r="AK48" s="76"/>
+      <c r="AL48" s="75"/>
+      <c r="AM48" s="75"/>
+      <c r="AN48" s="75"/>
+      <c r="AO48" s="75"/>
+      <c r="AP48" s="75"/>
+      <c r="AQ48" s="75"/>
+      <c r="AR48" s="75"/>
+      <c r="AS48" s="75"/>
+      <c r="AT48" s="75"/>
+      <c r="AU48" s="75"/>
+      <c r="AV48" s="75"/>
+      <c r="AW48" s="75"/>
+      <c r="AX48" s="75"/>
+      <c r="AY48" s="75"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -7681,30 +7617,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="91" t="s">
+      <c r="AF49" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="92"/>
-      <c r="AH49" s="92"/>
-      <c r="AI49" s="92"/>
-      <c r="AJ49" s="92"/>
-      <c r="AK49" s="93"/>
-      <c r="AL49" s="97" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM49" s="98"/>
-      <c r="AN49" s="98"/>
-      <c r="AO49" s="98"/>
-      <c r="AP49" s="98"/>
-      <c r="AQ49" s="98"/>
-      <c r="AR49" s="98"/>
-      <c r="AS49" s="98"/>
-      <c r="AT49" s="98"/>
-      <c r="AU49" s="98"/>
-      <c r="AV49" s="98"/>
-      <c r="AW49" s="98"/>
-      <c r="AX49" s="98"/>
-      <c r="AY49" s="99"/>
+      <c r="AG49" s="78"/>
+      <c r="AH49" s="78"/>
+      <c r="AI49" s="78"/>
+      <c r="AJ49" s="78"/>
+      <c r="AK49" s="79"/>
+      <c r="AL49" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM49" s="84"/>
+      <c r="AN49" s="84"/>
+      <c r="AO49" s="84"/>
+      <c r="AP49" s="84"/>
+      <c r="AQ49" s="84"/>
+      <c r="AR49" s="84"/>
+      <c r="AS49" s="84"/>
+      <c r="AT49" s="84"/>
+      <c r="AU49" s="84"/>
+      <c r="AV49" s="84"/>
+      <c r="AW49" s="84"/>
+      <c r="AX49" s="84"/>
+      <c r="AY49" s="85"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -7739,26 +7675,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="94"/>
-      <c r="AG50" s="95"/>
-      <c r="AH50" s="95"/>
-      <c r="AI50" s="95"/>
-      <c r="AJ50" s="95"/>
-      <c r="AK50" s="96"/>
-      <c r="AL50" s="100"/>
-      <c r="AM50" s="101"/>
-      <c r="AN50" s="101"/>
-      <c r="AO50" s="101"/>
-      <c r="AP50" s="101"/>
-      <c r="AQ50" s="101"/>
-      <c r="AR50" s="101"/>
-      <c r="AS50" s="101"/>
-      <c r="AT50" s="101"/>
-      <c r="AU50" s="101"/>
-      <c r="AV50" s="101"/>
-      <c r="AW50" s="101"/>
-      <c r="AX50" s="101"/>
-      <c r="AY50" s="102"/>
+      <c r="AF50" s="80"/>
+      <c r="AG50" s="81"/>
+      <c r="AH50" s="81"/>
+      <c r="AI50" s="81"/>
+      <c r="AJ50" s="81"/>
+      <c r="AK50" s="82"/>
+      <c r="AL50" s="86"/>
+      <c r="AM50" s="87"/>
+      <c r="AN50" s="87"/>
+      <c r="AO50" s="87"/>
+      <c r="AP50" s="87"/>
+      <c r="AQ50" s="87"/>
+      <c r="AR50" s="87"/>
+      <c r="AS50" s="87"/>
+      <c r="AT50" s="87"/>
+      <c r="AU50" s="87"/>
+      <c r="AV50" s="87"/>
+      <c r="AW50" s="87"/>
+      <c r="AX50" s="87"/>
+      <c r="AY50" s="88"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -7871,17 +7807,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="AF3:AK4"/>
+    <mergeCell ref="AL3:AY4"/>
+    <mergeCell ref="I16:AR29"/>
     <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF47:AK48"/>
     <mergeCell ref="AF49:AK50"/>
     <mergeCell ref="AL49:AY50"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AL45:AY46"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AL3:AY4"/>
-    <mergeCell ref="I16:AR29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -7909,244 +7845,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="106"/>
-      <c r="AR1" s="106"/>
-      <c r="AS1" s="106"/>
-      <c r="AT1" s="106"/>
-      <c r="AU1" s="106"/>
-      <c r="AV1" s="106"/>
-      <c r="AW1" s="106"/>
-      <c r="AX1" s="106"/>
-      <c r="AY1" s="106"/>
-      <c r="AZ1" s="107"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="111"/>
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="111"/>
+      <c r="AW1" s="111"/>
+      <c r="AX1" s="111"/>
+      <c r="AY1" s="111"/>
+      <c r="AZ1" s="112"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="108"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="109"/>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="109"/>
-      <c r="AJ2" s="109"/>
-      <c r="AK2" s="109"/>
-      <c r="AL2" s="109"/>
-      <c r="AM2" s="109"/>
-      <c r="AN2" s="109"/>
-      <c r="AO2" s="109"/>
-      <c r="AP2" s="109"/>
-      <c r="AQ2" s="109"/>
-      <c r="AR2" s="109"/>
-      <c r="AS2" s="109"/>
-      <c r="AT2" s="109"/>
-      <c r="AU2" s="109"/>
-      <c r="AV2" s="109"/>
-      <c r="AW2" s="109"/>
-      <c r="AX2" s="109"/>
-      <c r="AY2" s="109"/>
-      <c r="AZ2" s="110"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="114"/>
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="114"/>
+      <c r="AH2" s="114"/>
+      <c r="AI2" s="114"/>
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+      <c r="AM2" s="114"/>
+      <c r="AN2" s="114"/>
+      <c r="AO2" s="114"/>
+      <c r="AP2" s="114"/>
+      <c r="AQ2" s="114"/>
+      <c r="AR2" s="114"/>
+      <c r="AS2" s="114"/>
+      <c r="AT2" s="114"/>
+      <c r="AU2" s="114"/>
+      <c r="AV2" s="114"/>
+      <c r="AW2" s="114"/>
+      <c r="AX2" s="114"/>
+      <c r="AY2" s="114"/>
+      <c r="AZ2" s="115"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="113" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="113" t="s">
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="113" t="s">
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="113" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="114"/>
-      <c r="AJ4" s="114"/>
-      <c r="AK4" s="114"/>
-      <c r="AL4" s="114"/>
-      <c r="AM4" s="114"/>
-      <c r="AN4" s="114"/>
-      <c r="AO4" s="114"/>
-      <c r="AP4" s="114"/>
-      <c r="AQ4" s="114"/>
-      <c r="AR4" s="114"/>
-      <c r="AS4" s="114"/>
-      <c r="AT4" s="114"/>
-      <c r="AU4" s="114"/>
-      <c r="AV4" s="114"/>
-      <c r="AW4" s="114"/>
-      <c r="AX4" s="114"/>
-      <c r="AY4" s="114"/>
-      <c r="AZ4" s="115"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="106"/>
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="106"/>
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="106"/>
+      <c r="AZ4" s="107"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="116">
+      <c r="A5" s="108">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117">
+      <c r="B5" s="108"/>
+      <c r="C5" s="109">
         <v>42887</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="116" t="s">
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116" t="s">
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116" t="s">
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
-      <c r="AF5" s="116"/>
-      <c r="AG5" s="116"/>
-      <c r="AH5" s="116"/>
-      <c r="AI5" s="116"/>
-      <c r="AJ5" s="116"/>
-      <c r="AK5" s="116"/>
-      <c r="AL5" s="116"/>
-      <c r="AM5" s="116"/>
-      <c r="AN5" s="116"/>
-      <c r="AO5" s="116"/>
-      <c r="AP5" s="116"/>
-      <c r="AQ5" s="116"/>
-      <c r="AR5" s="116"/>
-      <c r="AS5" s="116"/>
-      <c r="AT5" s="116"/>
-      <c r="AU5" s="116"/>
-      <c r="AV5" s="116"/>
-      <c r="AW5" s="116"/>
-      <c r="AX5" s="116"/>
-      <c r="AY5" s="116"/>
-      <c r="AZ5" s="116"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="108"/>
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="108"/>
+      <c r="AF5" s="108"/>
+      <c r="AG5" s="108"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="108"/>
+      <c r="AJ5" s="108"/>
+      <c r="AK5" s="108"/>
+      <c r="AL5" s="108"/>
+      <c r="AM5" s="108"/>
+      <c r="AN5" s="108"/>
+      <c r="AO5" s="108"/>
+      <c r="AP5" s="108"/>
+      <c r="AQ5" s="108"/>
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="108"/>
+      <c r="AT5" s="108"/>
+      <c r="AU5" s="108"/>
+      <c r="AV5" s="108"/>
+      <c r="AW5" s="108"/>
+      <c r="AX5" s="108"/>
+      <c r="AY5" s="108"/>
+      <c r="AZ5" s="108"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="103">
@@ -8161,13 +8097,13 @@
       <c r="E6" s="104"/>
       <c r="F6" s="104"/>
       <c r="G6" s="103" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H6" s="103"/>
       <c r="I6" s="103"/>
       <c r="J6" s="103"/>
       <c r="K6" s="103" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L6" s="103"/>
       <c r="M6" s="103"/>
@@ -8179,7 +8115,7 @@
       <c r="S6" s="103"/>
       <c r="T6" s="103"/>
       <c r="U6" s="103" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="V6" s="103"/>
       <c r="W6" s="103"/>
@@ -8226,13 +8162,13 @@
       <c r="E7" s="104"/>
       <c r="F7" s="104"/>
       <c r="G7" s="103" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H7" s="103"/>
       <c r="I7" s="103"/>
       <c r="J7" s="103"/>
       <c r="K7" s="103" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
@@ -8244,7 +8180,7 @@
       <c r="S7" s="103"/>
       <c r="T7" s="103"/>
       <c r="U7" s="103" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="V7" s="103"/>
       <c r="W7" s="103"/>
@@ -8291,13 +8227,13 @@
       <c r="E8" s="104"/>
       <c r="F8" s="104"/>
       <c r="G8" s="103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H8" s="103"/>
       <c r="I8" s="103"/>
       <c r="J8" s="103"/>
       <c r="K8" s="103" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
@@ -8309,7 +8245,7 @@
       <c r="S8" s="103"/>
       <c r="T8" s="103"/>
       <c r="U8" s="103" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="V8" s="103"/>
       <c r="W8" s="103"/>
@@ -8356,13 +8292,13 @@
       <c r="E9" s="104"/>
       <c r="F9" s="104"/>
       <c r="G9" s="103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H9" s="103"/>
       <c r="I9" s="103"/>
       <c r="J9" s="103"/>
       <c r="K9" s="103" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L9" s="103"/>
       <c r="M9" s="103"/>
@@ -8374,7 +8310,7 @@
       <c r="S9" s="103"/>
       <c r="T9" s="103"/>
       <c r="U9" s="103" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="V9" s="103"/>
       <c r="W9" s="103"/>
@@ -10461,232 +10397,88 @@
       <c r="AZ45" s="103"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="111">
+      <c r="A46" s="116">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="111"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="111"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="111"/>
-      <c r="N46" s="111"/>
-      <c r="O46" s="111"/>
-      <c r="P46" s="111"/>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="111"/>
-      <c r="S46" s="111"/>
-      <c r="T46" s="111"/>
-      <c r="U46" s="111"/>
-      <c r="V46" s="111"/>
-      <c r="W46" s="111"/>
-      <c r="X46" s="111"/>
-      <c r="Y46" s="111"/>
-      <c r="Z46" s="111"/>
-      <c r="AA46" s="111"/>
-      <c r="AB46" s="111"/>
-      <c r="AC46" s="111"/>
-      <c r="AD46" s="111"/>
-      <c r="AE46" s="111"/>
-      <c r="AF46" s="111"/>
-      <c r="AG46" s="111"/>
-      <c r="AH46" s="111"/>
-      <c r="AI46" s="111"/>
-      <c r="AJ46" s="111"/>
-      <c r="AK46" s="111"/>
-      <c r="AL46" s="111"/>
-      <c r="AM46" s="111"/>
-      <c r="AN46" s="111"/>
-      <c r="AO46" s="111"/>
-      <c r="AP46" s="111"/>
-      <c r="AQ46" s="111"/>
-      <c r="AR46" s="111"/>
-      <c r="AS46" s="111"/>
-      <c r="AT46" s="111"/>
-      <c r="AU46" s="111"/>
-      <c r="AV46" s="111"/>
-      <c r="AW46" s="111"/>
-      <c r="AX46" s="111"/>
-      <c r="AY46" s="111"/>
-      <c r="AZ46" s="111"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="116"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="116"/>
+      <c r="R46" s="116"/>
+      <c r="S46" s="116"/>
+      <c r="T46" s="116"/>
+      <c r="U46" s="116"/>
+      <c r="V46" s="116"/>
+      <c r="W46" s="116"/>
+      <c r="X46" s="116"/>
+      <c r="Y46" s="116"/>
+      <c r="Z46" s="116"/>
+      <c r="AA46" s="116"/>
+      <c r="AB46" s="116"/>
+      <c r="AC46" s="116"/>
+      <c r="AD46" s="116"/>
+      <c r="AE46" s="116"/>
+      <c r="AF46" s="116"/>
+      <c r="AG46" s="116"/>
+      <c r="AH46" s="116"/>
+      <c r="AI46" s="116"/>
+      <c r="AJ46" s="116"/>
+      <c r="AK46" s="116"/>
+      <c r="AL46" s="116"/>
+      <c r="AM46" s="116"/>
+      <c r="AN46" s="116"/>
+      <c r="AO46" s="116"/>
+      <c r="AP46" s="116"/>
+      <c r="AQ46" s="116"/>
+      <c r="AR46" s="116"/>
+      <c r="AS46" s="116"/>
+      <c r="AT46" s="116"/>
+      <c r="AU46" s="116"/>
+      <c r="AV46" s="116"/>
+      <c r="AW46" s="116"/>
+      <c r="AX46" s="116"/>
+      <c r="AY46" s="116"/>
+      <c r="AZ46" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="A1:AZ2"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="U46:AZ46"/>
+    <mergeCell ref="U45:AZ45"/>
+    <mergeCell ref="U42:AZ42"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U43:AZ43"/>
+    <mergeCell ref="U44:AZ44"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
     <mergeCell ref="K43:T43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:F44"/>
@@ -10711,30 +10503,174 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="U41:AZ41"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="A1:AZ2"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="U46:AZ46"/>
-    <mergeCell ref="U45:AZ45"/>
-    <mergeCell ref="U42:AZ42"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:T45"/>
-    <mergeCell ref="U43:AZ43"/>
-    <mergeCell ref="U44:AZ44"/>
-    <mergeCell ref="K42:T42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10749,7 +10685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CD67"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:J5"/>
     </sheetView>
   </sheetViews>
@@ -10761,165 +10697,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="148" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="154" t="s">
+      <c r="A1" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="155" t="s">
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="155"/>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="155"/>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="155"/>
-      <c r="AH1" s="154" t="s">
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="154"/>
-      <c r="AJ1" s="154"/>
-      <c r="AK1" s="154"/>
-      <c r="AL1" s="141">
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="137">
         <v>45545</v>
       </c>
-      <c r="AM1" s="141"/>
-      <c r="AN1" s="141"/>
-      <c r="AO1" s="141"/>
-      <c r="AP1" s="141"/>
-      <c r="AQ1" s="141"/>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="141"/>
-      <c r="AT1" s="141"/>
-      <c r="AU1" s="142" t="s">
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="137"/>
+      <c r="AO1" s="137"/>
+      <c r="AP1" s="137"/>
+      <c r="AQ1" s="137"/>
+      <c r="AR1" s="137"/>
+      <c r="AS1" s="137"/>
+      <c r="AT1" s="137"/>
+      <c r="AU1" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="132">
+      <c r="AV1" s="139"/>
+      <c r="AW1" s="128">
         <v>3</v>
       </c>
-      <c r="AX1" s="133"/>
-      <c r="AY1" s="134"/>
+      <c r="AX1" s="129"/>
+      <c r="AY1" s="130"/>
     </row>
     <row r="2" spans="1:57" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="138" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="139" t="s">
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="139"/>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="139"/>
-      <c r="AH2" s="138" t="s">
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="140" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="144"/>
-      <c r="AV2" s="145"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="137"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="136" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="141"/>
+      <c r="AW2" s="131"/>
+      <c r="AX2" s="132"/>
+      <c r="AY2" s="133"/>
     </row>
     <row r="3" spans="1:57" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:57">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
     </row>
     <row r="5" spans="1:57" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="147"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:57" ht="12" customHeight="1">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="124"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -10932,57 +10868,57 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="125" t="s">
+      <c r="M6" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="126"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="126"/>
-      <c r="AO6" s="127"/>
-      <c r="AP6" s="128" t="s">
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="145"/>
+      <c r="AA6" s="145"/>
+      <c r="AB6" s="145"/>
+      <c r="AC6" s="145"/>
+      <c r="AD6" s="145"/>
+      <c r="AE6" s="145"/>
+      <c r="AF6" s="145"/>
+      <c r="AG6" s="145"/>
+      <c r="AH6" s="145"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="145"/>
+      <c r="AL6" s="145"/>
+      <c r="AM6" s="145"/>
+      <c r="AN6" s="145"/>
+      <c r="AO6" s="146"/>
+      <c r="AP6" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="128"/>
-      <c r="AR6" s="128"/>
-      <c r="AS6" s="128"/>
-      <c r="AT6" s="128"/>
-      <c r="AU6" s="128"/>
-      <c r="AV6" s="128"/>
-      <c r="AW6" s="128"/>
-      <c r="AX6" s="128"/>
-      <c r="AY6" s="129"/>
+      <c r="AQ6" s="147"/>
+      <c r="AR6" s="147"/>
+      <c r="AS6" s="147"/>
+      <c r="AT6" s="147"/>
+      <c r="AU6" s="147"/>
+      <c r="AV6" s="147"/>
+      <c r="AW6" s="147"/>
+      <c r="AX6" s="147"/>
+      <c r="AY6" s="148"/>
     </row>
     <row r="7" spans="1:57" ht="12" customHeight="1">
-      <c r="A7" s="130">
+      <c r="A7" s="149">
         <v>1</v>
       </c>
-      <c r="B7" s="131"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -11024,9 +10960,7 @@
       <c r="AM7" s="26"/>
       <c r="AN7" s="26"/>
       <c r="AO7" s="31"/>
-      <c r="AP7" s="65" t="s">
-        <v>88</v>
-      </c>
+      <c r="AP7" s="65"/>
       <c r="AQ7" s="34"/>
       <c r="AR7" s="34"/>
       <c r="AS7" s="34"/>
@@ -11051,7 +10985,7 @@
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N8" s="29"/>
       <c r="O8" s="23"/>
@@ -11081,9 +11015,7 @@
       <c r="AM8" s="23"/>
       <c r="AN8" s="23"/>
       <c r="AO8" s="33"/>
-      <c r="AP8" s="66" t="s">
-        <v>89</v>
-      </c>
+      <c r="AP8" s="66"/>
       <c r="AQ8" s="24"/>
       <c r="AR8" s="24"/>
       <c r="AS8" s="24"/>
@@ -11110,7 +11042,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
@@ -11496,7 +11428,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
@@ -11536,12 +11468,12 @@
       <c r="AY16" s="25"/>
     </row>
     <row r="17" spans="1:82" ht="12" customHeight="1">
-      <c r="A17" s="118">
+      <c r="A17" s="151">
         <v>2</v>
       </c>
-      <c r="B17" s="119"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -11553,7 +11485,7 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
@@ -11584,7 +11516,7 @@
       <c r="AN17" s="26"/>
       <c r="AO17" s="31"/>
       <c r="AP17" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AQ17" s="34"/>
       <c r="AR17" s="34"/>
@@ -11611,7 +11543,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -11642,7 +11574,7 @@
       <c r="AN18" s="23"/>
       <c r="AO18" s="33"/>
       <c r="AP18" s="70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AQ18" s="24"/>
       <c r="AR18" s="24"/>
@@ -11670,7 +11602,7 @@
       <c r="L19" s="23"/>
       <c r="M19" s="41"/>
       <c r="N19" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
@@ -11700,7 +11632,7 @@
       <c r="AN19" s="23"/>
       <c r="AO19" s="33"/>
       <c r="AP19" s="70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AQ19" s="24"/>
       <c r="AR19" s="24"/>
@@ -11727,10 +11659,10 @@
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
@@ -11760,7 +11692,7 @@
       <c r="AN20" s="23"/>
       <c r="AO20" s="33"/>
       <c r="AP20" s="70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AQ20" s="24"/>
       <c r="AR20" s="24"/>
@@ -11787,7 +11719,7 @@
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
       <c r="M21" s="41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -11818,7 +11750,7 @@
       <c r="AN21" s="23"/>
       <c r="AO21" s="33"/>
       <c r="AP21" s="70" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AQ21" s="24"/>
       <c r="AR21" s="24"/>
@@ -11845,7 +11777,7 @@
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
       <c r="M22" s="41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
@@ -11876,7 +11808,7 @@
       <c r="AN22" s="23"/>
       <c r="AO22" s="33"/>
       <c r="AP22" s="70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AQ22" s="24"/>
       <c r="AR22" s="24"/>
@@ -11890,12 +11822,12 @@
       <c r="BB22" s="57"/>
     </row>
     <row r="23" spans="1:82" ht="12" customHeight="1">
-      <c r="A23" s="118">
+      <c r="A23" s="151">
         <v>3</v>
       </c>
-      <c r="B23" s="119"/>
+      <c r="B23" s="152"/>
       <c r="C23" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -11907,7 +11839,7 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="67" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
@@ -11938,7 +11870,7 @@
       <c r="AN23" s="26"/>
       <c r="AO23" s="31"/>
       <c r="AP23" s="71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AQ23" s="34"/>
       <c r="AR23" s="34"/>
@@ -11965,7 +11897,7 @@
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
       <c r="M24" s="41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
@@ -11996,7 +11928,7 @@
       <c r="AN24" s="23"/>
       <c r="AO24" s="33"/>
       <c r="AP24" s="70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AQ24" s="24"/>
       <c r="AR24" s="24"/>
@@ -12023,7 +11955,7 @@
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
       <c r="M25" s="41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
@@ -12054,7 +11986,7 @@
       <c r="AN25" s="23"/>
       <c r="AO25" s="33"/>
       <c r="AP25" s="70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AQ25" s="24"/>
       <c r="AR25" s="24"/>
@@ -12081,7 +12013,7 @@
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
       <c r="M26" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
@@ -12112,7 +12044,7 @@
       <c r="AN26" s="23"/>
       <c r="AO26" s="33"/>
       <c r="AP26" s="70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AQ26" s="24"/>
       <c r="AR26" s="24"/>
@@ -12140,7 +12072,7 @@
       <c r="L27" s="23"/>
       <c r="M27" s="41"/>
       <c r="N27" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O27" s="23"/>
       <c r="P27" s="23"/>
@@ -12170,7 +12102,7 @@
       <c r="AN27" s="23"/>
       <c r="AO27" s="33"/>
       <c r="AP27" s="70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AQ27" s="24"/>
       <c r="AR27" s="24"/>
@@ -12198,7 +12130,7 @@
       <c r="L28" s="23"/>
       <c r="M28" s="41"/>
       <c r="N28" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O28" s="23"/>
       <c r="P28" s="23"/>
@@ -12228,7 +12160,7 @@
       <c r="AN28" s="23"/>
       <c r="AO28" s="33"/>
       <c r="AP28" s="70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AQ28" s="24"/>
       <c r="AR28" s="24"/>
@@ -12257,7 +12189,7 @@
       <c r="M29" s="41"/>
       <c r="N29" s="29"/>
       <c r="O29" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P29" s="23"/>
       <c r="Q29" s="23"/>
@@ -12326,12 +12258,12 @@
       <c r="CD29" s="29"/>
     </row>
     <row r="30" spans="1:82" ht="12" customHeight="1">
-      <c r="A30" s="118">
+      <c r="A30" s="151">
         <v>4</v>
       </c>
-      <c r="B30" s="119"/>
+      <c r="B30" s="152"/>
       <c r="C30" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -12343,7 +12275,7 @@
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
       <c r="M30" s="67" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
@@ -12374,7 +12306,7 @@
       <c r="AN30" s="26"/>
       <c r="AO30" s="31"/>
       <c r="AP30" s="71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AQ30" s="34"/>
       <c r="AR30" s="34"/>
@@ -12401,7 +12333,7 @@
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
       <c r="M31" s="69" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
@@ -12432,7 +12364,7 @@
       <c r="AN31" s="23"/>
       <c r="AO31" s="33"/>
       <c r="AP31" s="70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AQ31" s="24"/>
       <c r="AR31" s="24"/>
@@ -12459,7 +12391,7 @@
       <c r="K32" s="23"/>
       <c r="L32" s="23"/>
       <c r="M32" s="69" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
@@ -12490,7 +12422,7 @@
       <c r="AN32" s="23"/>
       <c r="AO32" s="33"/>
       <c r="AP32" s="70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AQ32" s="24"/>
       <c r="AR32" s="24"/>
@@ -12517,7 +12449,7 @@
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
       <c r="M33" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
@@ -12548,7 +12480,7 @@
       <c r="AN33" s="23"/>
       <c r="AO33" s="33"/>
       <c r="AP33" s="70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AQ33" s="24"/>
       <c r="AR33" s="24"/>
@@ -12576,7 +12508,7 @@
       <c r="L34" s="23"/>
       <c r="M34" s="69"/>
       <c r="N34" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O34" s="23"/>
       <c r="P34" s="23"/>
@@ -12606,7 +12538,7 @@
       <c r="AN34" s="23"/>
       <c r="AO34" s="33"/>
       <c r="AP34" s="70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AQ34" s="24"/>
       <c r="AR34" s="24"/>
@@ -12662,7 +12594,7 @@
       <c r="AN35" s="23"/>
       <c r="AO35" s="33"/>
       <c r="AP35" s="70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AQ35" s="24"/>
       <c r="AR35" s="24"/>
@@ -12758,12 +12690,12 @@
       <c r="CD36" s="29"/>
     </row>
     <row r="37" spans="1:82" ht="12" customHeight="1">
-      <c r="A37" s="118">
+      <c r="A37" s="151">
         <v>5</v>
       </c>
-      <c r="B37" s="119"/>
+      <c r="B37" s="152"/>
       <c r="C37" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
@@ -12775,7 +12707,7 @@
       <c r="K37" s="26"/>
       <c r="L37" s="26"/>
       <c r="M37" s="67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N37" s="26"/>
       <c r="O37" s="26"/>
@@ -12806,7 +12738,7 @@
       <c r="AN37" s="26"/>
       <c r="AO37" s="31"/>
       <c r="AP37" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AQ37" s="34"/>
       <c r="AR37" s="34"/>
@@ -12861,7 +12793,7 @@
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N38" s="23"/>
       <c r="O38" s="23"/>
@@ -12892,7 +12824,7 @@
       <c r="AN38" s="23"/>
       <c r="AO38" s="33"/>
       <c r="AP38" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AQ38" s="24"/>
       <c r="AR38" s="24"/>
@@ -12920,7 +12852,7 @@
       <c r="L39" s="23"/>
       <c r="M39" s="68"/>
       <c r="N39" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O39" s="23"/>
       <c r="P39" s="23"/>
@@ -12950,7 +12882,7 @@
       <c r="AN39" s="23"/>
       <c r="AO39" s="33"/>
       <c r="AP39" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AQ39" s="24"/>
       <c r="AR39" s="24"/>
@@ -12978,7 +12910,7 @@
       <c r="L40" s="23"/>
       <c r="M40" s="68"/>
       <c r="N40" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O40" s="23"/>
       <c r="P40" s="23"/>
@@ -13008,7 +12940,7 @@
       <c r="AN40" s="23"/>
       <c r="AO40" s="33"/>
       <c r="AP40" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AQ40" s="24"/>
       <c r="AR40" s="24"/>
@@ -13037,7 +12969,7 @@
       <c r="L41" s="23"/>
       <c r="M41" s="41"/>
       <c r="N41" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O41" s="23"/>
       <c r="P41" s="23"/>
@@ -13067,7 +12999,7 @@
       <c r="AN41" s="23"/>
       <c r="AO41" s="33"/>
       <c r="AP41" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AQ41" s="24"/>
       <c r="AR41" s="24"/>
@@ -13095,7 +13027,7 @@
       <c r="L42" s="23"/>
       <c r="M42" s="41"/>
       <c r="N42" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O42" s="23"/>
       <c r="P42" s="23"/>
@@ -13125,7 +13057,7 @@
       <c r="AN42" s="23"/>
       <c r="AO42" s="33"/>
       <c r="AP42" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AQ42" s="24"/>
       <c r="AR42" s="24"/>
@@ -13154,7 +13086,7 @@
       <c r="M43" s="41"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P43" s="23"/>
       <c r="Q43" s="23"/>
@@ -13210,7 +13142,7 @@
       <c r="M44" s="41"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P44" s="23"/>
       <c r="Q44" s="23"/>
@@ -13265,7 +13197,7 @@
       <c r="L45" s="23"/>
       <c r="M45" s="41"/>
       <c r="N45" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O45" s="23"/>
       <c r="P45" s="23"/>
@@ -13321,7 +13253,7 @@
       <c r="L46" s="23"/>
       <c r="M46" s="41"/>
       <c r="N46" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O46" s="23"/>
       <c r="P46" s="23"/>
@@ -13363,12 +13295,12 @@
       <c r="BB46" s="57"/>
     </row>
     <row r="47" spans="1:82" ht="12" customHeight="1">
-      <c r="A47" s="118">
+      <c r="A47" s="151">
         <v>6</v>
       </c>
-      <c r="B47" s="119"/>
+      <c r="B47" s="152"/>
       <c r="C47" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
@@ -13380,7 +13312,7 @@
       <c r="K47" s="26"/>
       <c r="L47" s="26"/>
       <c r="M47" s="67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N47" s="26"/>
       <c r="O47" s="26"/>
@@ -13411,7 +13343,7 @@
       <c r="AN47" s="26"/>
       <c r="AO47" s="31"/>
       <c r="AP47" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AQ47" s="34"/>
       <c r="AR47" s="34"/>
@@ -13438,7 +13370,7 @@
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
       <c r="M48" s="69" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N48" s="23"/>
       <c r="O48" s="23"/>
@@ -13469,7 +13401,7 @@
       <c r="AN48" s="23"/>
       <c r="AO48" s="33"/>
       <c r="AP48" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AQ48" s="24"/>
       <c r="AR48" s="24"/>
@@ -13496,7 +13428,7 @@
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
       <c r="M49" s="69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N49" s="23"/>
       <c r="O49" s="23"/>
@@ -13527,7 +13459,7 @@
       <c r="AN49" s="23"/>
       <c r="AO49" s="33"/>
       <c r="AP49" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AQ49" s="24"/>
       <c r="AR49" s="24"/>
@@ -13554,7 +13486,7 @@
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
       <c r="M50" s="69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N50" s="23"/>
       <c r="O50" s="23"/>
@@ -13585,7 +13517,7 @@
       <c r="AN50" s="23"/>
       <c r="AO50" s="33"/>
       <c r="AP50" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AQ50" s="24"/>
       <c r="AR50" s="24"/>
@@ -13613,7 +13545,7 @@
       <c r="L51" s="23"/>
       <c r="M51" s="69"/>
       <c r="N51" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O51" s="23"/>
       <c r="P51" s="23"/>
@@ -13643,7 +13575,7 @@
       <c r="AN51" s="23"/>
       <c r="AO51" s="33"/>
       <c r="AP51" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AQ51" s="24"/>
       <c r="AR51" s="24"/>
@@ -13671,7 +13603,7 @@
       <c r="L52" s="23"/>
       <c r="M52" s="69"/>
       <c r="N52" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O52" s="23"/>
       <c r="P52" s="23"/>
@@ -13728,7 +13660,7 @@
       <c r="M53" s="69"/>
       <c r="N53" s="23"/>
       <c r="O53" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P53" s="23"/>
       <c r="Q53" s="23"/>
@@ -13769,12 +13701,12 @@
       <c r="BB53" s="57"/>
     </row>
     <row r="54" spans="1:54" ht="12" customHeight="1">
-      <c r="A54" s="118">
+      <c r="A54" s="151">
         <v>7</v>
       </c>
-      <c r="B54" s="119"/>
+      <c r="B54" s="152"/>
       <c r="C54" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
@@ -13786,7 +13718,7 @@
       <c r="K54" s="26"/>
       <c r="L54" s="26"/>
       <c r="M54" s="67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N54" s="26"/>
       <c r="O54" s="26"/>
@@ -13817,7 +13749,7 @@
       <c r="AN54" s="26"/>
       <c r="AO54" s="31"/>
       <c r="AP54" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AQ54" s="34"/>
       <c r="AR54" s="34"/>
@@ -13844,7 +13776,7 @@
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
       <c r="M55" s="69" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N55" s="23"/>
       <c r="O55" s="23"/>
@@ -13875,7 +13807,7 @@
       <c r="AN55" s="23"/>
       <c r="AO55" s="33"/>
       <c r="AP55" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AQ55" s="24"/>
       <c r="AR55" s="24"/>
@@ -13902,7 +13834,7 @@
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
       <c r="M56" s="41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N56" s="23"/>
       <c r="O56" s="23"/>
@@ -13933,7 +13865,7 @@
       <c r="AN56" s="23"/>
       <c r="AO56" s="33"/>
       <c r="AP56" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AQ56" s="24"/>
       <c r="AR56" s="24"/>
@@ -13960,7 +13892,7 @@
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
       <c r="M57" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N57" s="23"/>
       <c r="O57" s="23"/>
@@ -13991,7 +13923,7 @@
       <c r="AN57" s="23"/>
       <c r="AO57" s="33"/>
       <c r="AP57" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AQ57" s="24"/>
       <c r="AR57" s="24"/>
@@ -14047,7 +13979,7 @@
       <c r="AN58" s="23"/>
       <c r="AO58" s="33"/>
       <c r="AP58" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AQ58" s="24"/>
       <c r="AR58" s="24"/>
@@ -14273,59 +14205,59 @@
       <c r="AY62" s="25"/>
     </row>
     <row r="63" spans="1:54" ht="10.5" customHeight="1">
-      <c r="A63" s="120" t="s">
+      <c r="A63" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="121"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="121"/>
-      <c r="E63" s="121"/>
-      <c r="F63" s="121"/>
-      <c r="G63" s="121"/>
-      <c r="H63" s="121"/>
-      <c r="I63" s="121"/>
-      <c r="J63" s="121"/>
-      <c r="K63" s="121"/>
-      <c r="L63" s="121"/>
-      <c r="M63" s="121"/>
-      <c r="N63" s="121"/>
-      <c r="O63" s="121"/>
-      <c r="P63" s="121"/>
-      <c r="Q63" s="121"/>
-      <c r="R63" s="121"/>
-      <c r="S63" s="121"/>
-      <c r="T63" s="121"/>
-      <c r="U63" s="121"/>
-      <c r="V63" s="121"/>
-      <c r="W63" s="121"/>
-      <c r="X63" s="121"/>
-      <c r="Y63" s="121"/>
-      <c r="Z63" s="121"/>
-      <c r="AA63" s="121"/>
-      <c r="AB63" s="121"/>
-      <c r="AC63" s="121"/>
-      <c r="AD63" s="121"/>
-      <c r="AE63" s="121"/>
-      <c r="AF63" s="121"/>
-      <c r="AG63" s="121"/>
-      <c r="AH63" s="121"/>
-      <c r="AI63" s="121"/>
-      <c r="AJ63" s="121"/>
-      <c r="AK63" s="121"/>
-      <c r="AL63" s="121"/>
-      <c r="AM63" s="121"/>
-      <c r="AN63" s="121"/>
-      <c r="AO63" s="121"/>
-      <c r="AP63" s="121"/>
-      <c r="AQ63" s="121"/>
-      <c r="AR63" s="121"/>
-      <c r="AS63" s="121"/>
-      <c r="AT63" s="121"/>
-      <c r="AU63" s="121"/>
-      <c r="AV63" s="121"/>
-      <c r="AW63" s="121"/>
-      <c r="AX63" s="121"/>
-      <c r="AY63" s="122"/>
+      <c r="B63" s="154"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="154"/>
+      <c r="E63" s="154"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="154"/>
+      <c r="I63" s="154"/>
+      <c r="J63" s="154"/>
+      <c r="K63" s="154"/>
+      <c r="L63" s="154"/>
+      <c r="M63" s="154"/>
+      <c r="N63" s="154"/>
+      <c r="O63" s="154"/>
+      <c r="P63" s="154"/>
+      <c r="Q63" s="154"/>
+      <c r="R63" s="154"/>
+      <c r="S63" s="154"/>
+      <c r="T63" s="154"/>
+      <c r="U63" s="154"/>
+      <c r="V63" s="154"/>
+      <c r="W63" s="154"/>
+      <c r="X63" s="154"/>
+      <c r="Y63" s="154"/>
+      <c r="Z63" s="154"/>
+      <c r="AA63" s="154"/>
+      <c r="AB63" s="154"/>
+      <c r="AC63" s="154"/>
+      <c r="AD63" s="154"/>
+      <c r="AE63" s="154"/>
+      <c r="AF63" s="154"/>
+      <c r="AG63" s="154"/>
+      <c r="AH63" s="154"/>
+      <c r="AI63" s="154"/>
+      <c r="AJ63" s="154"/>
+      <c r="AK63" s="154"/>
+      <c r="AL63" s="154"/>
+      <c r="AM63" s="154"/>
+      <c r="AN63" s="154"/>
+      <c r="AO63" s="154"/>
+      <c r="AP63" s="154"/>
+      <c r="AQ63" s="154"/>
+      <c r="AR63" s="154"/>
+      <c r="AS63" s="154"/>
+      <c r="AT63" s="154"/>
+      <c r="AU63" s="154"/>
+      <c r="AV63" s="154"/>
+      <c r="AW63" s="154"/>
+      <c r="AX63" s="154"/>
+      <c r="AY63" s="155"/>
     </row>
     <row r="64" spans="1:54" ht="10.5" customHeight="1">
       <c r="A64" s="35"/>
@@ -14541,11 +14473,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A63:AY63"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AO6"/>
+    <mergeCell ref="AP6:AY6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AG2"/>
@@ -14553,17 +14491,11 @@
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AO6"/>
-    <mergeCell ref="AP6:AY6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A63:AY63"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14578,7 +14510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AY65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AR47" sqref="AR47"/>
     </sheetView>
   </sheetViews>
@@ -14590,165 +14522,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="148" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="154" t="s">
+      <c r="A1" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="155" t="s">
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="155"/>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="155"/>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="155"/>
-      <c r="AH1" s="154" t="s">
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="154"/>
-      <c r="AJ1" s="154"/>
-      <c r="AK1" s="154"/>
-      <c r="AL1" s="141">
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="137">
         <v>45547</v>
       </c>
-      <c r="AM1" s="141"/>
-      <c r="AN1" s="141"/>
-      <c r="AO1" s="141"/>
-      <c r="AP1" s="141"/>
-      <c r="AQ1" s="141"/>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="141"/>
-      <c r="AT1" s="141"/>
-      <c r="AU1" s="142" t="s">
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="137"/>
+      <c r="AO1" s="137"/>
+      <c r="AP1" s="137"/>
+      <c r="AQ1" s="137"/>
+      <c r="AR1" s="137"/>
+      <c r="AS1" s="137"/>
+      <c r="AT1" s="137"/>
+      <c r="AU1" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="132">
+      <c r="AV1" s="139"/>
+      <c r="AW1" s="128">
         <v>4</v>
       </c>
-      <c r="AX1" s="133"/>
-      <c r="AY1" s="134"/>
+      <c r="AX1" s="129"/>
+      <c r="AY1" s="130"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="138" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="139" t="s">
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="139"/>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="139"/>
-      <c r="AH2" s="138" t="s">
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="140" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="144"/>
-      <c r="AV2" s="145"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="137"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="136" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="141"/>
+      <c r="AW2" s="131"/>
+      <c r="AX2" s="132"/>
+      <c r="AY2" s="133"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="147"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="124"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -14761,57 +14693,57 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="125" t="s">
+      <c r="M6" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="126"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="126"/>
-      <c r="AO6" s="127"/>
-      <c r="AP6" s="128" t="s">
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="145"/>
+      <c r="AA6" s="145"/>
+      <c r="AB6" s="145"/>
+      <c r="AC6" s="145"/>
+      <c r="AD6" s="145"/>
+      <c r="AE6" s="145"/>
+      <c r="AF6" s="145"/>
+      <c r="AG6" s="145"/>
+      <c r="AH6" s="145"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="145"/>
+      <c r="AL6" s="145"/>
+      <c r="AM6" s="145"/>
+      <c r="AN6" s="145"/>
+      <c r="AO6" s="146"/>
+      <c r="AP6" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="128"/>
-      <c r="AR6" s="128"/>
-      <c r="AS6" s="128"/>
-      <c r="AT6" s="128"/>
-      <c r="AU6" s="128"/>
-      <c r="AV6" s="128"/>
-      <c r="AW6" s="128"/>
-      <c r="AX6" s="128"/>
-      <c r="AY6" s="129"/>
+      <c r="AQ6" s="147"/>
+      <c r="AR6" s="147"/>
+      <c r="AS6" s="147"/>
+      <c r="AT6" s="147"/>
+      <c r="AU6" s="147"/>
+      <c r="AV6" s="147"/>
+      <c r="AW6" s="147"/>
+      <c r="AX6" s="147"/>
+      <c r="AY6" s="148"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="130">
+      <c r="A7" s="149">
         <v>1</v>
       </c>
-      <c r="B7" s="131"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -14823,7 +14755,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
       <c r="M7" s="67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
@@ -14854,7 +14786,7 @@
       <c r="AN7" s="26"/>
       <c r="AO7" s="31"/>
       <c r="AP7" s="34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AQ7" s="34"/>
       <c r="AR7" s="34"/>
@@ -14880,7 +14812,7 @@
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="69" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
@@ -14911,7 +14843,7 @@
       <c r="AN8" s="23"/>
       <c r="AO8" s="33"/>
       <c r="AP8" s="24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AQ8" s="24"/>
       <c r="AR8" s="24"/>
@@ -14939,7 +14871,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="60"/>
       <c r="O9" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
@@ -14969,7 +14901,7 @@
       <c r="AO9" s="33"/>
       <c r="AP9" s="24"/>
       <c r="AQ9" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AR9" s="24"/>
       <c r="AS9" s="24"/>
@@ -14994,7 +14926,7 @@
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
       <c r="M10" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N10" s="60"/>
       <c r="O10" s="23"/>
@@ -15026,7 +14958,7 @@
       <c r="AO10" s="33"/>
       <c r="AP10" s="24"/>
       <c r="AQ10" s="24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AR10" s="24"/>
       <c r="AS10" s="24"/>
@@ -15051,7 +14983,7 @@
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N11" s="60"/>
       <c r="O11" s="23"/>
@@ -15083,7 +15015,7 @@
       <c r="AO11" s="33"/>
       <c r="AP11" s="24"/>
       <c r="AQ11" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AR11" s="24"/>
       <c r="AS11" s="24"/>
@@ -15138,7 +15070,7 @@
       <c r="AO12" s="33"/>
       <c r="AP12" s="24"/>
       <c r="AQ12" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AR12" s="24"/>
       <c r="AS12" s="24"/>
@@ -15193,7 +15125,7 @@
       <c r="AO13" s="33"/>
       <c r="AP13" s="24"/>
       <c r="AQ13" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AR13" s="24"/>
       <c r="AS13" s="24"/>
@@ -15247,7 +15179,7 @@
       <c r="AN14" s="23"/>
       <c r="AO14" s="33"/>
       <c r="AP14" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AQ14" s="24"/>
       <c r="AR14" s="24"/>
@@ -15260,12 +15192,12 @@
       <c r="AY14" s="25"/>
     </row>
     <row r="15" spans="1:51" ht="12" customHeight="1">
-      <c r="A15" s="130">
+      <c r="A15" s="149">
         <v>2</v>
       </c>
-      <c r="B15" s="131"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -15277,7 +15209,7 @@
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
       <c r="M15" s="67" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
@@ -15308,7 +15240,7 @@
       <c r="AN15" s="26"/>
       <c r="AO15" s="31"/>
       <c r="AP15" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AQ15" s="34"/>
       <c r="AR15" s="34"/>
@@ -15334,7 +15266,7 @@
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
@@ -15365,7 +15297,7 @@
       <c r="AN16" s="23"/>
       <c r="AO16" s="33"/>
       <c r="AP16" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AQ16" s="24"/>
       <c r="AR16" s="24"/>
@@ -15393,7 +15325,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="52"/>
       <c r="O17" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
@@ -15423,7 +15355,7 @@
       <c r="AO17" s="33"/>
       <c r="AP17" s="24"/>
       <c r="AQ17" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AR17" s="24"/>
       <c r="AS17" s="24"/>
@@ -15448,7 +15380,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N18" s="52"/>
       <c r="O18" s="23"/>
@@ -15480,7 +15412,7 @@
       <c r="AO18" s="33"/>
       <c r="AP18" s="24"/>
       <c r="AQ18" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AR18" s="24"/>
       <c r="AS18" s="24"/>
@@ -15505,7 +15437,7 @@
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
       <c r="M19" s="41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N19" s="52"/>
       <c r="O19" s="23"/>
@@ -15537,7 +15469,7 @@
       <c r="AO19" s="33"/>
       <c r="AP19" s="24"/>
       <c r="AQ19" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AR19" s="24"/>
       <c r="AS19" s="24"/>
@@ -15562,7 +15494,7 @@
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="41" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N20" s="60"/>
       <c r="O20" s="23"/>
@@ -15594,7 +15526,7 @@
       <c r="AO20" s="33"/>
       <c r="AP20" s="24"/>
       <c r="AQ20" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AR20" s="24"/>
       <c r="AS20" s="24"/>
@@ -15620,7 +15552,7 @@
       <c r="L21" s="23"/>
       <c r="M21" s="41"/>
       <c r="N21" s="60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O21" s="23"/>
       <c r="P21" s="23"/>
@@ -15651,7 +15583,7 @@
       <c r="AO21" s="33"/>
       <c r="AP21" s="24"/>
       <c r="AQ21" s="24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AR21" s="24"/>
       <c r="AS21" s="24"/>
@@ -15705,7 +15637,7 @@
       <c r="AN22" s="23"/>
       <c r="AO22" s="33"/>
       <c r="AP22" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AQ22" s="24"/>
       <c r="AR22" s="24"/>
@@ -15718,12 +15650,12 @@
       <c r="AY22" s="25"/>
     </row>
     <row r="23" spans="1:51" ht="12" customHeight="1">
-      <c r="A23" s="130">
+      <c r="A23" s="149">
         <v>3</v>
       </c>
-      <c r="B23" s="131"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -15735,7 +15667,7 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="67" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
@@ -15766,7 +15698,7 @@
       <c r="AN23" s="26"/>
       <c r="AO23" s="31"/>
       <c r="AP23" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AQ23" s="34"/>
       <c r="AR23" s="34"/>
@@ -15792,7 +15724,7 @@
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
       <c r="M24" s="69" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
@@ -15823,7 +15755,7 @@
       <c r="AN24" s="23"/>
       <c r="AO24" s="33"/>
       <c r="AP24" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AQ24" s="24"/>
       <c r="AR24" s="24"/>
@@ -15849,7 +15781,7 @@
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
       <c r="M25" s="69" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
@@ -15881,7 +15813,7 @@
       <c r="AO25" s="33"/>
       <c r="AP25" s="24"/>
       <c r="AQ25" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AR25" s="24"/>
       <c r="AS25" s="24"/>
@@ -15906,7 +15838,7 @@
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
       <c r="M26" s="69" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
@@ -15938,7 +15870,7 @@
       <c r="AO26" s="33"/>
       <c r="AP26" s="24"/>
       <c r="AQ26" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AR26" s="24"/>
       <c r="AS26" s="24"/>
@@ -15993,7 +15925,7 @@
       <c r="AO27" s="33"/>
       <c r="AP27" s="24"/>
       <c r="AQ27" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AR27" s="24"/>
       <c r="AS27" s="24"/>
@@ -16048,7 +15980,7 @@
       <c r="AO28" s="33"/>
       <c r="AP28" s="24"/>
       <c r="AQ28" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AR28" s="24"/>
       <c r="AS28" s="24"/>
@@ -16103,7 +16035,7 @@
       <c r="AO29" s="33"/>
       <c r="AP29" s="24"/>
       <c r="AQ29" s="24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AR29" s="24"/>
       <c r="AS29" s="24"/>
@@ -16157,7 +16089,7 @@
       <c r="AN30" s="23"/>
       <c r="AO30" s="33"/>
       <c r="AP30" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AQ30" s="24"/>
       <c r="AR30" s="24"/>
@@ -16223,12 +16155,12 @@
       <c r="AY31" s="25"/>
     </row>
     <row r="32" spans="1:51" ht="12" customHeight="1">
-      <c r="A32" s="130">
+      <c r="A32" s="149">
         <v>4</v>
       </c>
-      <c r="B32" s="131"/>
+      <c r="B32" s="150"/>
       <c r="C32" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
@@ -16240,7 +16172,7 @@
       <c r="K32" s="26"/>
       <c r="L32" s="26"/>
       <c r="M32" s="67" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
@@ -16295,7 +16227,7 @@
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
       <c r="M33" s="69" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
@@ -16352,7 +16284,7 @@
       <c r="M34" s="68"/>
       <c r="N34" s="23"/>
       <c r="O34" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P34" s="23"/>
       <c r="Q34" s="23"/>
@@ -16405,7 +16337,7 @@
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
       <c r="M35" s="69" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N35" s="23"/>
       <c r="O35" s="23"/>
@@ -16460,7 +16392,7 @@
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
       <c r="M36" s="69" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
@@ -16516,7 +16448,7 @@
       <c r="L37" s="23"/>
       <c r="M37" s="41"/>
       <c r="N37" s="60" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O37" s="23"/>
       <c r="P37" s="23"/>
@@ -16557,12 +16489,12 @@
       <c r="AY37" s="25"/>
     </row>
     <row r="38" spans="1:51" ht="12" customHeight="1">
-      <c r="A38" s="130">
+      <c r="A38" s="149">
         <v>5</v>
       </c>
-      <c r="B38" s="131"/>
+      <c r="B38" s="150"/>
       <c r="C38" s="40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
@@ -16574,7 +16506,7 @@
       <c r="K38" s="26"/>
       <c r="L38" s="26"/>
       <c r="M38" s="67" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N38" s="26"/>
       <c r="O38" s="26"/>
@@ -16629,7 +16561,7 @@
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
       <c r="M39" s="69" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N39" s="23"/>
       <c r="O39" s="23"/>
@@ -16684,7 +16616,7 @@
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
       <c r="M40" s="69" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N40" s="23"/>
       <c r="O40" s="23"/>
@@ -17786,59 +17718,59 @@
       <c r="AY60" s="28"/>
     </row>
     <row r="61" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A61" s="120" t="s">
+      <c r="A61" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="121"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
-      <c r="G61" s="121"/>
-      <c r="H61" s="121"/>
-      <c r="I61" s="121"/>
-      <c r="J61" s="121"/>
-      <c r="K61" s="121"/>
-      <c r="L61" s="121"/>
-      <c r="M61" s="121"/>
-      <c r="N61" s="121"/>
-      <c r="O61" s="121"/>
-      <c r="P61" s="121"/>
-      <c r="Q61" s="121"/>
-      <c r="R61" s="121"/>
-      <c r="S61" s="121"/>
-      <c r="T61" s="121"/>
-      <c r="U61" s="121"/>
-      <c r="V61" s="121"/>
-      <c r="W61" s="121"/>
-      <c r="X61" s="121"/>
-      <c r="Y61" s="121"/>
-      <c r="Z61" s="121"/>
-      <c r="AA61" s="121"/>
-      <c r="AB61" s="121"/>
-      <c r="AC61" s="121"/>
-      <c r="AD61" s="121"/>
-      <c r="AE61" s="121"/>
-      <c r="AF61" s="121"/>
-      <c r="AG61" s="121"/>
-      <c r="AH61" s="121"/>
-      <c r="AI61" s="121"/>
-      <c r="AJ61" s="121"/>
-      <c r="AK61" s="121"/>
-      <c r="AL61" s="121"/>
-      <c r="AM61" s="121"/>
-      <c r="AN61" s="121"/>
-      <c r="AO61" s="121"/>
-      <c r="AP61" s="121"/>
-      <c r="AQ61" s="121"/>
-      <c r="AR61" s="121"/>
-      <c r="AS61" s="121"/>
-      <c r="AT61" s="121"/>
-      <c r="AU61" s="121"/>
-      <c r="AV61" s="121"/>
-      <c r="AW61" s="121"/>
-      <c r="AX61" s="121"/>
-      <c r="AY61" s="122"/>
+      <c r="B61" s="154"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="154"/>
+      <c r="E61" s="154"/>
+      <c r="F61" s="154"/>
+      <c r="G61" s="154"/>
+      <c r="H61" s="154"/>
+      <c r="I61" s="154"/>
+      <c r="J61" s="154"/>
+      <c r="K61" s="154"/>
+      <c r="L61" s="154"/>
+      <c r="M61" s="154"/>
+      <c r="N61" s="154"/>
+      <c r="O61" s="154"/>
+      <c r="P61" s="154"/>
+      <c r="Q61" s="154"/>
+      <c r="R61" s="154"/>
+      <c r="S61" s="154"/>
+      <c r="T61" s="154"/>
+      <c r="U61" s="154"/>
+      <c r="V61" s="154"/>
+      <c r="W61" s="154"/>
+      <c r="X61" s="154"/>
+      <c r="Y61" s="154"/>
+      <c r="Z61" s="154"/>
+      <c r="AA61" s="154"/>
+      <c r="AB61" s="154"/>
+      <c r="AC61" s="154"/>
+      <c r="AD61" s="154"/>
+      <c r="AE61" s="154"/>
+      <c r="AF61" s="154"/>
+      <c r="AG61" s="154"/>
+      <c r="AH61" s="154"/>
+      <c r="AI61" s="154"/>
+      <c r="AJ61" s="154"/>
+      <c r="AK61" s="154"/>
+      <c r="AL61" s="154"/>
+      <c r="AM61" s="154"/>
+      <c r="AN61" s="154"/>
+      <c r="AO61" s="154"/>
+      <c r="AP61" s="154"/>
+      <c r="AQ61" s="154"/>
+      <c r="AR61" s="154"/>
+      <c r="AS61" s="154"/>
+      <c r="AT61" s="154"/>
+      <c r="AU61" s="154"/>
+      <c r="AV61" s="154"/>
+      <c r="AW61" s="154"/>
+      <c r="AX61" s="154"/>
+      <c r="AY61" s="155"/>
     </row>
     <row r="62" spans="1:51" ht="10.5" customHeight="1">
       <c r="A62" s="35"/>
@@ -18054,6 +17986,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A61:AY61"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
     <mergeCell ref="AP6:AY6"/>
@@ -18070,11 +18007,6 @@
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A61:AY61"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -18089,8 +18021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AZ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO39" sqref="AO39"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BB43" sqref="BB43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -18101,165 +18033,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="148" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="154" t="s">
+      <c r="A1" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="155" t="s">
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="155"/>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="155"/>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="155"/>
-      <c r="AH1" s="154" t="s">
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="154"/>
-      <c r="AJ1" s="154"/>
-      <c r="AK1" s="154"/>
-      <c r="AL1" s="141">
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="137">
         <v>45548</v>
       </c>
-      <c r="AM1" s="141"/>
-      <c r="AN1" s="141"/>
-      <c r="AO1" s="141"/>
-      <c r="AP1" s="141"/>
-      <c r="AQ1" s="141"/>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="141"/>
-      <c r="AT1" s="141"/>
-      <c r="AU1" s="142" t="s">
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="137"/>
+      <c r="AO1" s="137"/>
+      <c r="AP1" s="137"/>
+      <c r="AQ1" s="137"/>
+      <c r="AR1" s="137"/>
+      <c r="AS1" s="137"/>
+      <c r="AT1" s="137"/>
+      <c r="AU1" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="132">
+      <c r="AV1" s="139"/>
+      <c r="AW1" s="128">
         <v>5</v>
       </c>
-      <c r="AX1" s="133"/>
-      <c r="AY1" s="134"/>
+      <c r="AX1" s="129"/>
+      <c r="AY1" s="130"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="138" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="139" t="s">
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="139"/>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="139"/>
-      <c r="AH2" s="138" t="s">
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="140" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="144"/>
-      <c r="AV2" s="145"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="137"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="136" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="141"/>
+      <c r="AW2" s="131"/>
+      <c r="AX2" s="132"/>
+      <c r="AY2" s="133"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="147"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="124"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -18272,57 +18204,57 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="125" t="s">
+      <c r="M6" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="126"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="126"/>
-      <c r="AO6" s="127"/>
-      <c r="AP6" s="128" t="s">
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="145"/>
+      <c r="AA6" s="145"/>
+      <c r="AB6" s="145"/>
+      <c r="AC6" s="145"/>
+      <c r="AD6" s="145"/>
+      <c r="AE6" s="145"/>
+      <c r="AF6" s="145"/>
+      <c r="AG6" s="145"/>
+      <c r="AH6" s="145"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="145"/>
+      <c r="AL6" s="145"/>
+      <c r="AM6" s="145"/>
+      <c r="AN6" s="145"/>
+      <c r="AO6" s="146"/>
+      <c r="AP6" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="128"/>
-      <c r="AR6" s="128"/>
-      <c r="AS6" s="128"/>
-      <c r="AT6" s="128"/>
-      <c r="AU6" s="128"/>
-      <c r="AV6" s="128"/>
-      <c r="AW6" s="128"/>
-      <c r="AX6" s="128"/>
-      <c r="AY6" s="129"/>
+      <c r="AQ6" s="147"/>
+      <c r="AR6" s="147"/>
+      <c r="AS6" s="147"/>
+      <c r="AT6" s="147"/>
+      <c r="AU6" s="147"/>
+      <c r="AV6" s="147"/>
+      <c r="AW6" s="147"/>
+      <c r="AX6" s="147"/>
+      <c r="AY6" s="148"/>
     </row>
     <row r="7" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A7" s="130">
+      <c r="A7" s="149">
         <v>1</v>
       </c>
-      <c r="B7" s="131"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -18334,7 +18266,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
       <c r="M7" s="67" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
@@ -18365,7 +18297,7 @@
       <c r="AN7" s="26"/>
       <c r="AO7" s="31"/>
       <c r="AP7" s="34" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AQ7" s="34"/>
       <c r="AR7" s="34"/>
@@ -18391,7 +18323,7 @@
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="69" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
@@ -18422,7 +18354,7 @@
       <c r="AN8" s="23"/>
       <c r="AO8" s="33"/>
       <c r="AP8" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AQ8" s="24"/>
       <c r="AR8" s="24"/>
@@ -18450,7 +18382,7 @@
       <c r="M9" s="69"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
@@ -18479,7 +18411,7 @@
       <c r="AN9" s="23"/>
       <c r="AO9" s="33"/>
       <c r="AP9" s="24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AQ9" s="24"/>
       <c r="AR9" s="24"/>
@@ -18506,7 +18438,7 @@
       <c r="L10" s="23"/>
       <c r="M10" s="69"/>
       <c r="N10" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
@@ -18536,7 +18468,7 @@
       <c r="AN10" s="23"/>
       <c r="AO10" s="33"/>
       <c r="AP10" s="24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AQ10" s="24"/>
       <c r="AR10" s="24"/>
@@ -18563,7 +18495,7 @@
       <c r="L11" s="23"/>
       <c r="M11" s="69"/>
       <c r="N11" s="23" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
@@ -18593,7 +18525,7 @@
       <c r="AN11" s="23"/>
       <c r="AO11" s="33"/>
       <c r="AP11" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ11" s="24"/>
       <c r="AR11" s="24"/>
@@ -18620,7 +18552,7 @@
       <c r="L12" s="23"/>
       <c r="M12" s="41"/>
       <c r="N12" s="57" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
@@ -18650,7 +18582,7 @@
       <c r="AN12" s="23"/>
       <c r="AO12" s="33"/>
       <c r="AP12" s="24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AQ12" s="24"/>
       <c r="AR12" s="24"/>
@@ -18677,7 +18609,7 @@
       <c r="L13" s="23"/>
       <c r="M13" s="41"/>
       <c r="N13" s="57" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
@@ -18691,9 +18623,7 @@
       <c r="X13" s="23"/>
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
-      <c r="AA13" s="72" t="s">
-        <v>242</v>
-      </c>
+      <c r="AA13" s="72"/>
       <c r="AB13" s="23"/>
       <c r="AC13" s="23"/>
       <c r="AD13" s="23"/>
@@ -18709,7 +18639,7 @@
       <c r="AN13" s="23"/>
       <c r="AO13" s="33"/>
       <c r="AP13" s="24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AQ13" s="24"/>
       <c r="AR13" s="24"/>
@@ -18736,7 +18666,7 @@
       <c r="L14" s="23"/>
       <c r="M14" s="41"/>
       <c r="N14" s="57" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O14" s="23"/>
       <c r="P14" s="23"/>
@@ -18791,7 +18721,7 @@
       <c r="L15" s="23"/>
       <c r="M15" s="41"/>
       <c r="N15" s="23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O15" s="23"/>
       <c r="P15" s="23"/>
@@ -18832,12 +18762,12 @@
       <c r="AY15" s="25"/>
     </row>
     <row r="16" spans="1:51" ht="13.2">
-      <c r="A16" s="118">
+      <c r="A16" s="151">
         <v>2</v>
       </c>
-      <c r="B16" s="119"/>
+      <c r="B16" s="152"/>
       <c r="C16" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -18849,7 +18779,7 @@
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="73" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
@@ -18880,7 +18810,7 @@
       <c r="AN16" s="26"/>
       <c r="AO16" s="31"/>
       <c r="AP16" s="34" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AQ16" s="34"/>
       <c r="AR16" s="34"/>
@@ -18906,7 +18836,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
       <c r="M17" s="41" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -18937,7 +18867,7 @@
       <c r="AN17" s="23"/>
       <c r="AO17" s="33"/>
       <c r="AP17" s="24" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AQ17" s="24"/>
       <c r="AR17" s="24"/>
@@ -18964,7 +18894,7 @@
       <c r="L18" s="23"/>
       <c r="M18" s="41"/>
       <c r="O18" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P18" s="23"/>
       <c r="Q18" s="23"/>
@@ -18993,7 +18923,7 @@
       <c r="AN18" s="23"/>
       <c r="AO18" s="33"/>
       <c r="AP18" s="24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AQ18" s="24"/>
       <c r="AR18" s="24"/>
@@ -19019,7 +18949,7 @@
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
       <c r="M19" s="41" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -19050,7 +18980,7 @@
       <c r="AN19" s="23"/>
       <c r="AO19" s="33"/>
       <c r="AP19" s="24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AQ19" s="24"/>
       <c r="AR19" s="24"/>
@@ -19105,7 +19035,7 @@
       <c r="AN20" s="23"/>
       <c r="AO20" s="33"/>
       <c r="AP20" s="24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AQ20" s="24"/>
       <c r="AR20" s="24"/>
@@ -19160,7 +19090,7 @@
       <c r="AN21" s="23"/>
       <c r="AO21" s="33"/>
       <c r="AP21" s="24" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AQ21" s="24"/>
       <c r="AR21" s="24"/>
@@ -19215,7 +19145,7 @@
       <c r="AN22" s="23"/>
       <c r="AO22" s="33"/>
       <c r="AP22" s="24" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AQ22" s="24"/>
       <c r="AR22" s="24"/>
@@ -19281,12 +19211,12 @@
       <c r="AY23" s="25"/>
     </row>
     <row r="24" spans="1:52" ht="13.2">
-      <c r="A24" s="118">
+      <c r="A24" s="151">
         <v>3</v>
       </c>
-      <c r="B24" s="119"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -19298,7 +19228,7 @@
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
       <c r="M24" s="67" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
@@ -19329,7 +19259,7 @@
       <c r="AN24" s="26"/>
       <c r="AO24" s="31"/>
       <c r="AP24" s="34" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AQ24" s="34"/>
       <c r="AR24" s="34"/>
@@ -19355,7 +19285,7 @@
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
       <c r="M25" s="69" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
@@ -19386,7 +19316,7 @@
       <c r="AN25" s="23"/>
       <c r="AO25" s="33"/>
       <c r="AP25" s="24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AQ25" s="24"/>
       <c r="AR25" s="24"/>
@@ -19412,7 +19342,7 @@
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
       <c r="M26" s="69" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
@@ -19443,7 +19373,7 @@
       <c r="AN26" s="23"/>
       <c r="AO26" s="33"/>
       <c r="AP26" s="24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AQ26" s="24"/>
       <c r="AR26" s="24"/>
@@ -19469,7 +19399,7 @@
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
       <c r="M27" s="69" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
@@ -19500,7 +19430,7 @@
       <c r="AN27" s="23"/>
       <c r="AO27" s="33"/>
       <c r="AP27" s="24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AQ27" s="24"/>
       <c r="AR27" s="24"/>
@@ -19526,7 +19456,7 @@
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
       <c r="M28" s="69" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
@@ -19557,7 +19487,7 @@
       <c r="AN28" s="23"/>
       <c r="AO28" s="33"/>
       <c r="AP28" s="24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AQ28" s="24"/>
       <c r="AR28" s="24"/>
@@ -19583,7 +19513,7 @@
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="41" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
@@ -19614,7 +19544,7 @@
       <c r="AN29" s="23"/>
       <c r="AO29" s="33"/>
       <c r="AP29" s="24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AQ29" s="24"/>
       <c r="AR29" s="24"/>
@@ -19625,9 +19555,7 @@
       <c r="AW29" s="24"/>
       <c r="AX29" s="24"/>
       <c r="AY29" s="25"/>
-      <c r="AZ29" s="74" t="s">
-        <v>270</v>
-      </c>
+      <c r="AZ29" s="74"/>
     </row>
     <row r="30" spans="1:52" ht="13.2">
       <c r="A30" s="32"/>
@@ -19643,7 +19571,7 @@
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
       <c r="M30" s="41" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="O30" s="23"/>
       <c r="P30" s="23"/>
@@ -19737,12 +19665,12 @@
       <c r="AY31" s="25"/>
     </row>
     <row r="32" spans="1:52" ht="11.25" customHeight="1">
-      <c r="A32" s="118">
+      <c r="A32" s="151">
         <v>4</v>
       </c>
-      <c r="B32" s="119"/>
+      <c r="B32" s="152"/>
       <c r="C32" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
@@ -19754,7 +19682,7 @@
       <c r="K32" s="26"/>
       <c r="L32" s="26"/>
       <c r="M32" s="67" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
@@ -19785,7 +19713,7 @@
       <c r="AN32" s="26"/>
       <c r="AO32" s="31"/>
       <c r="AP32" s="34" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AQ32" s="34"/>
       <c r="AR32" s="34"/>
@@ -19811,7 +19739,7 @@
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
       <c r="M33" s="69" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
@@ -19842,7 +19770,7 @@
       <c r="AN33" s="23"/>
       <c r="AO33" s="33"/>
       <c r="AP33" s="24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AQ33" s="24"/>
       <c r="AR33" s="24"/>
@@ -19869,7 +19797,7 @@
       <c r="L34" s="23"/>
       <c r="M34" s="69"/>
       <c r="N34" s="23" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O34" s="23"/>
       <c r="P34" s="23"/>
@@ -19899,7 +19827,7 @@
       <c r="AN34" s="23"/>
       <c r="AO34" s="33"/>
       <c r="AP34" s="24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AQ34" s="24"/>
       <c r="AR34" s="24"/>
@@ -19926,7 +19854,7 @@
       <c r="L35" s="23"/>
       <c r="M35" s="69"/>
       <c r="N35" s="23" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O35" s="23"/>
       <c r="P35" s="23"/>
@@ -19956,7 +19884,7 @@
       <c r="AN35" s="23"/>
       <c r="AO35" s="33"/>
       <c r="AP35" s="24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AQ35" s="24"/>
       <c r="AR35" s="24"/>
@@ -19983,7 +19911,7 @@
       <c r="L36" s="23"/>
       <c r="M36" s="69"/>
       <c r="N36" s="23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O36" s="23"/>
       <c r="P36" s="23"/>
@@ -20013,7 +19941,7 @@
       <c r="AN36" s="23"/>
       <c r="AO36" s="33"/>
       <c r="AP36" s="24" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AQ36" s="24"/>
       <c r="AR36" s="24"/>
@@ -20041,7 +19969,7 @@
       <c r="M37" s="69"/>
       <c r="N37" s="23"/>
       <c r="O37" s="23" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P37" s="23"/>
       <c r="Q37" s="23"/>
@@ -20070,7 +19998,7 @@
       <c r="AN37" s="23"/>
       <c r="AO37" s="33"/>
       <c r="AP37" s="24" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AQ37" s="24"/>
       <c r="AR37" s="24"/>
@@ -20098,7 +20026,7 @@
       <c r="M38" s="69"/>
       <c r="N38" s="23"/>
       <c r="O38" s="23" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P38" s="23"/>
       <c r="Q38" s="23"/>
@@ -20151,7 +20079,7 @@
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
       <c r="M39" s="69" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N39" s="23"/>
       <c r="O39" s="23"/>
@@ -20206,7 +20134,7 @@
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
       <c r="M40" s="69" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N40" s="23"/>
       <c r="O40" s="23"/>
@@ -20354,12 +20282,12 @@
       <c r="AY42" s="25"/>
     </row>
     <row r="43" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A43" s="118">
+      <c r="A43" s="151">
         <v>5</v>
       </c>
-      <c r="B43" s="119"/>
+      <c r="B43" s="152"/>
       <c r="C43" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
@@ -20371,7 +20299,7 @@
       <c r="K43" s="26"/>
       <c r="L43" s="26"/>
       <c r="M43" s="67" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N43" s="26"/>
       <c r="O43" s="26"/>
@@ -20402,7 +20330,7 @@
       <c r="AN43" s="26"/>
       <c r="AO43" s="31"/>
       <c r="AP43" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AQ43" s="34"/>
       <c r="AR43" s="34"/>
@@ -20428,7 +20356,7 @@
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
       <c r="M44" s="69" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
@@ -20459,7 +20387,7 @@
       <c r="AN44" s="23"/>
       <c r="AO44" s="33"/>
       <c r="AP44" s="24" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AQ44" s="24"/>
       <c r="AR44" s="24"/>
@@ -20485,7 +20413,7 @@
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
       <c r="M45" s="69" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N45" s="23"/>
       <c r="O45" s="23"/>
@@ -20516,7 +20444,7 @@
       <c r="AN45" s="23"/>
       <c r="AO45" s="33"/>
       <c r="AP45" s="24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AQ45" s="24"/>
       <c r="AR45" s="24"/>
@@ -20542,7 +20470,7 @@
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
       <c r="M46" s="69" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N46" s="23"/>
       <c r="O46" s="23"/>
@@ -20573,7 +20501,7 @@
       <c r="AN46" s="23"/>
       <c r="AO46" s="33"/>
       <c r="AP46" s="24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AQ46" s="24"/>
       <c r="AR46" s="24"/>
@@ -20599,7 +20527,7 @@
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
       <c r="M47" s="69" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N47" s="23"/>
       <c r="O47" s="23"/>
@@ -20630,7 +20558,7 @@
       <c r="AN47" s="23"/>
       <c r="AO47" s="33"/>
       <c r="AP47" s="24" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AQ47" s="24"/>
       <c r="AR47" s="24"/>
@@ -20656,7 +20584,7 @@
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
       <c r="M48" s="69" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N48" s="23"/>
       <c r="O48" s="23"/>
@@ -20687,7 +20615,7 @@
       <c r="AN48" s="23"/>
       <c r="AO48" s="33"/>
       <c r="AP48" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AQ48" s="24"/>
       <c r="AR48" s="24"/>
@@ -20859,12 +20787,12 @@
       <c r="AY51" s="25"/>
     </row>
     <row r="52" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A52" s="118">
+      <c r="A52" s="151">
         <v>6</v>
       </c>
-      <c r="B52" s="119"/>
+      <c r="B52" s="152"/>
       <c r="C52" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
@@ -20876,7 +20804,7 @@
       <c r="K52" s="26"/>
       <c r="L52" s="26"/>
       <c r="M52" s="67" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N52" s="26"/>
       <c r="O52" s="26"/>
@@ -20931,7 +20859,7 @@
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
       <c r="M53" s="41" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
@@ -20988,7 +20916,7 @@
       <c r="M54" s="41"/>
       <c r="N54" s="23"/>
       <c r="O54" s="23" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P54" s="23"/>
       <c r="Q54" s="23"/>
@@ -21041,7 +20969,7 @@
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
       <c r="M55" s="41" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N55" s="23"/>
       <c r="O55" s="23"/>
@@ -21242,12 +21170,12 @@
       <c r="AY58" s="25"/>
     </row>
     <row r="59" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A59" s="118">
+      <c r="A59" s="151">
         <v>7</v>
       </c>
-      <c r="B59" s="119"/>
+      <c r="B59" s="152"/>
       <c r="C59" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
@@ -21259,7 +21187,7 @@
       <c r="K59" s="26"/>
       <c r="L59" s="26"/>
       <c r="M59" s="67" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N59" s="26"/>
       <c r="O59" s="26"/>
@@ -21314,7 +21242,7 @@
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="41" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N60" s="23"/>
       <c r="O60" s="23"/>
@@ -21371,7 +21299,7 @@
       <c r="M61" s="41"/>
       <c r="N61" s="23"/>
       <c r="O61" s="23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P61" s="23"/>
       <c r="Q61" s="23"/>
@@ -21424,7 +21352,7 @@
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
       <c r="M62" s="41" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N62" s="23"/>
       <c r="O62" s="23"/>
@@ -21837,59 +21765,59 @@
       <c r="AY69" s="25"/>
     </row>
     <row r="70" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A70" s="120" t="s">
+      <c r="A70" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="121"/>
-      <c r="C70" s="121"/>
-      <c r="D70" s="121"/>
-      <c r="E70" s="121"/>
-      <c r="F70" s="121"/>
-      <c r="G70" s="121"/>
-      <c r="H70" s="121"/>
-      <c r="I70" s="121"/>
-      <c r="J70" s="121"/>
-      <c r="K70" s="121"/>
-      <c r="L70" s="121"/>
-      <c r="M70" s="121"/>
-      <c r="N70" s="121"/>
-      <c r="O70" s="121"/>
-      <c r="P70" s="121"/>
-      <c r="Q70" s="121"/>
-      <c r="R70" s="121"/>
-      <c r="S70" s="121"/>
-      <c r="T70" s="121"/>
-      <c r="U70" s="121"/>
-      <c r="V70" s="121"/>
-      <c r="W70" s="121"/>
-      <c r="X70" s="121"/>
-      <c r="Y70" s="121"/>
-      <c r="Z70" s="121"/>
-      <c r="AA70" s="121"/>
-      <c r="AB70" s="121"/>
-      <c r="AC70" s="121"/>
-      <c r="AD70" s="121"/>
-      <c r="AE70" s="121"/>
-      <c r="AF70" s="121"/>
-      <c r="AG70" s="121"/>
-      <c r="AH70" s="121"/>
-      <c r="AI70" s="121"/>
-      <c r="AJ70" s="121"/>
-      <c r="AK70" s="121"/>
-      <c r="AL70" s="121"/>
-      <c r="AM70" s="121"/>
-      <c r="AN70" s="121"/>
-      <c r="AO70" s="121"/>
-      <c r="AP70" s="121"/>
-      <c r="AQ70" s="121"/>
-      <c r="AR70" s="121"/>
-      <c r="AS70" s="121"/>
-      <c r="AT70" s="121"/>
-      <c r="AU70" s="121"/>
-      <c r="AV70" s="121"/>
-      <c r="AW70" s="121"/>
-      <c r="AX70" s="121"/>
-      <c r="AY70" s="122"/>
+      <c r="B70" s="154"/>
+      <c r="C70" s="154"/>
+      <c r="D70" s="154"/>
+      <c r="E70" s="154"/>
+      <c r="F70" s="154"/>
+      <c r="G70" s="154"/>
+      <c r="H70" s="154"/>
+      <c r="I70" s="154"/>
+      <c r="J70" s="154"/>
+      <c r="K70" s="154"/>
+      <c r="L70" s="154"/>
+      <c r="M70" s="154"/>
+      <c r="N70" s="154"/>
+      <c r="O70" s="154"/>
+      <c r="P70" s="154"/>
+      <c r="Q70" s="154"/>
+      <c r="R70" s="154"/>
+      <c r="S70" s="154"/>
+      <c r="T70" s="154"/>
+      <c r="U70" s="154"/>
+      <c r="V70" s="154"/>
+      <c r="W70" s="154"/>
+      <c r="X70" s="154"/>
+      <c r="Y70" s="154"/>
+      <c r="Z70" s="154"/>
+      <c r="AA70" s="154"/>
+      <c r="AB70" s="154"/>
+      <c r="AC70" s="154"/>
+      <c r="AD70" s="154"/>
+      <c r="AE70" s="154"/>
+      <c r="AF70" s="154"/>
+      <c r="AG70" s="154"/>
+      <c r="AH70" s="154"/>
+      <c r="AI70" s="154"/>
+      <c r="AJ70" s="154"/>
+      <c r="AK70" s="154"/>
+      <c r="AL70" s="154"/>
+      <c r="AM70" s="154"/>
+      <c r="AN70" s="154"/>
+      <c r="AO70" s="154"/>
+      <c r="AP70" s="154"/>
+      <c r="AQ70" s="154"/>
+      <c r="AR70" s="154"/>
+      <c r="AS70" s="154"/>
+      <c r="AT70" s="154"/>
+      <c r="AU70" s="154"/>
+      <c r="AV70" s="154"/>
+      <c r="AW70" s="154"/>
+      <c r="AX70" s="154"/>
+      <c r="AY70" s="155"/>
     </row>
     <row r="71" spans="1:51" ht="10.5" customHeight="1">
       <c r="A71" s="35"/>
@@ -22105,6 +22033,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A70:AY70"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T1:W1"/>
@@ -22121,13 +22056,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
     <mergeCell ref="AP6:AY6"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -22154,165 +22082,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="148" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="154" t="s">
+      <c r="A1" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="155" t="s">
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="155"/>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="155"/>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="155"/>
-      <c r="AH1" s="154" t="s">
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="154"/>
-      <c r="AJ1" s="154"/>
-      <c r="AK1" s="154"/>
-      <c r="AL1" s="141">
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="137">
         <v>42887</v>
       </c>
-      <c r="AM1" s="141"/>
-      <c r="AN1" s="141"/>
-      <c r="AO1" s="141"/>
-      <c r="AP1" s="141"/>
-      <c r="AQ1" s="141"/>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="141"/>
-      <c r="AT1" s="141"/>
-      <c r="AU1" s="142" t="s">
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="137"/>
+      <c r="AO1" s="137"/>
+      <c r="AP1" s="137"/>
+      <c r="AQ1" s="137"/>
+      <c r="AR1" s="137"/>
+      <c r="AS1" s="137"/>
+      <c r="AT1" s="137"/>
+      <c r="AU1" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="132">
+      <c r="AV1" s="139"/>
+      <c r="AW1" s="128">
         <v>6</v>
       </c>
-      <c r="AX1" s="133"/>
-      <c r="AY1" s="134"/>
+      <c r="AX1" s="129"/>
+      <c r="AY1" s="130"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="138" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="139" t="s">
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="139"/>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="139"/>
-      <c r="AH2" s="138" t="s">
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="140" t="s">
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="144"/>
-      <c r="AV2" s="145"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="137"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="141"/>
+      <c r="AW2" s="131"/>
+      <c r="AX2" s="132"/>
+      <c r="AY2" s="133"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="147"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="124"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -22325,57 +22253,57 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="125" t="s">
+      <c r="M6" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="126"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="126"/>
-      <c r="AO6" s="127"/>
-      <c r="AP6" s="128" t="s">
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="145"/>
+      <c r="AA6" s="145"/>
+      <c r="AB6" s="145"/>
+      <c r="AC6" s="145"/>
+      <c r="AD6" s="145"/>
+      <c r="AE6" s="145"/>
+      <c r="AF6" s="145"/>
+      <c r="AG6" s="145"/>
+      <c r="AH6" s="145"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="145"/>
+      <c r="AL6" s="145"/>
+      <c r="AM6" s="145"/>
+      <c r="AN6" s="145"/>
+      <c r="AO6" s="146"/>
+      <c r="AP6" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="128"/>
-      <c r="AR6" s="128"/>
-      <c r="AS6" s="128"/>
-      <c r="AT6" s="128"/>
-      <c r="AU6" s="128"/>
-      <c r="AV6" s="128"/>
-      <c r="AW6" s="128"/>
-      <c r="AX6" s="128"/>
-      <c r="AY6" s="129"/>
+      <c r="AQ6" s="147"/>
+      <c r="AR6" s="147"/>
+      <c r="AS6" s="147"/>
+      <c r="AT6" s="147"/>
+      <c r="AU6" s="147"/>
+      <c r="AV6" s="147"/>
+      <c r="AW6" s="147"/>
+      <c r="AX6" s="147"/>
+      <c r="AY6" s="148"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="130">
+      <c r="A7" s="149">
         <v>1</v>
       </c>
-      <c r="B7" s="131"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -22499,7 +22427,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
@@ -22759,12 +22687,12 @@
       <c r="AY13" s="25"/>
     </row>
     <row r="14" spans="1:51" ht="12" customHeight="1">
-      <c r="A14" s="130">
+      <c r="A14" s="149">
         <v>2</v>
       </c>
-      <c r="B14" s="131"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -22888,7 +22816,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
@@ -23148,12 +23076,12 @@
       <c r="AY20" s="25"/>
     </row>
     <row r="21" spans="1:51" ht="12" customHeight="1">
-      <c r="A21" s="130">
+      <c r="A21" s="149">
         <v>3</v>
       </c>
-      <c r="B21" s="131"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -23277,7 +23205,7 @@
       <c r="M23" s="41"/>
       <c r="N23" s="57"/>
       <c r="O23" s="57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P23" s="23"/>
       <c r="Q23" s="23"/>
@@ -23372,12 +23300,12 @@
       <c r="AY24" s="25"/>
     </row>
     <row r="25" spans="1:51" ht="12" customHeight="1">
-      <c r="A25" s="130">
+      <c r="A25" s="149">
         <v>4</v>
       </c>
-      <c r="B25" s="131"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -23501,7 +23429,7 @@
       <c r="M27" s="41"/>
       <c r="N27" s="57"/>
       <c r="O27" s="57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P27" s="23"/>
       <c r="Q27" s="23"/>
@@ -23596,12 +23524,12 @@
       <c r="AY28" s="25"/>
     </row>
     <row r="29" spans="1:51" ht="12" customHeight="1">
-      <c r="A29" s="130">
+      <c r="A29" s="149">
         <v>5</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="150"/>
       <c r="C29" s="40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -23725,7 +23653,7 @@
       <c r="M31" s="41"/>
       <c r="N31" s="57"/>
       <c r="O31" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P31" s="23"/>
       <c r="Q31" s="23"/>
@@ -24721,59 +24649,59 @@
       <c r="AY49" s="28"/>
     </row>
     <row r="50" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A50" s="120" t="s">
+      <c r="A50" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="121"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="121"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="121"/>
-      <c r="J50" s="121"/>
-      <c r="K50" s="121"/>
-      <c r="L50" s="121"/>
-      <c r="M50" s="121"/>
-      <c r="N50" s="121"/>
-      <c r="O50" s="121"/>
-      <c r="P50" s="121"/>
-      <c r="Q50" s="121"/>
-      <c r="R50" s="121"/>
-      <c r="S50" s="121"/>
-      <c r="T50" s="121"/>
-      <c r="U50" s="121"/>
-      <c r="V50" s="121"/>
-      <c r="W50" s="121"/>
-      <c r="X50" s="121"/>
-      <c r="Y50" s="121"/>
-      <c r="Z50" s="121"/>
-      <c r="AA50" s="121"/>
-      <c r="AB50" s="121"/>
-      <c r="AC50" s="121"/>
-      <c r="AD50" s="121"/>
-      <c r="AE50" s="121"/>
-      <c r="AF50" s="121"/>
-      <c r="AG50" s="121"/>
-      <c r="AH50" s="121"/>
-      <c r="AI50" s="121"/>
-      <c r="AJ50" s="121"/>
-      <c r="AK50" s="121"/>
-      <c r="AL50" s="121"/>
-      <c r="AM50" s="121"/>
-      <c r="AN50" s="121"/>
-      <c r="AO50" s="121"/>
-      <c r="AP50" s="121"/>
-      <c r="AQ50" s="121"/>
-      <c r="AR50" s="121"/>
-      <c r="AS50" s="121"/>
-      <c r="AT50" s="121"/>
-      <c r="AU50" s="121"/>
-      <c r="AV50" s="121"/>
-      <c r="AW50" s="121"/>
-      <c r="AX50" s="121"/>
-      <c r="AY50" s="122"/>
+      <c r="B50" s="154"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="154"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="154"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="154"/>
+      <c r="K50" s="154"/>
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
+      <c r="N50" s="154"/>
+      <c r="O50" s="154"/>
+      <c r="P50" s="154"/>
+      <c r="Q50" s="154"/>
+      <c r="R50" s="154"/>
+      <c r="S50" s="154"/>
+      <c r="T50" s="154"/>
+      <c r="U50" s="154"/>
+      <c r="V50" s="154"/>
+      <c r="W50" s="154"/>
+      <c r="X50" s="154"/>
+      <c r="Y50" s="154"/>
+      <c r="Z50" s="154"/>
+      <c r="AA50" s="154"/>
+      <c r="AB50" s="154"/>
+      <c r="AC50" s="154"/>
+      <c r="AD50" s="154"/>
+      <c r="AE50" s="154"/>
+      <c r="AF50" s="154"/>
+      <c r="AG50" s="154"/>
+      <c r="AH50" s="154"/>
+      <c r="AI50" s="154"/>
+      <c r="AJ50" s="154"/>
+      <c r="AK50" s="154"/>
+      <c r="AL50" s="154"/>
+      <c r="AM50" s="154"/>
+      <c r="AN50" s="154"/>
+      <c r="AO50" s="154"/>
+      <c r="AP50" s="154"/>
+      <c r="AQ50" s="154"/>
+      <c r="AR50" s="154"/>
+      <c r="AS50" s="154"/>
+      <c r="AT50" s="154"/>
+      <c r="AU50" s="154"/>
+      <c r="AV50" s="154"/>
+      <c r="AW50" s="154"/>
+      <c r="AX50" s="154"/>
+      <c r="AY50" s="155"/>
     </row>
     <row r="51" spans="1:51" ht="10.5" customHeight="1">
       <c r="A51" s="35"/>
@@ -24989,18 +24917,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AW1:AY2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="AU1:AV2"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A50:AY50"/>
     <mergeCell ref="A21:B21"/>
@@ -25010,6 +24926,18 @@
     <mergeCell ref="AP6:AY6"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="AW1:AY2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -25036,165 +24964,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="148" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="154" t="s">
+      <c r="A1" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="155" t="s">
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="155"/>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="155"/>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="155"/>
-      <c r="AH1" s="154" t="s">
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="154"/>
-      <c r="AJ1" s="154"/>
-      <c r="AK1" s="154"/>
-      <c r="AL1" s="141">
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="137">
         <v>42887</v>
       </c>
-      <c r="AM1" s="141"/>
-      <c r="AN1" s="141"/>
-      <c r="AO1" s="141"/>
-      <c r="AP1" s="141"/>
-      <c r="AQ1" s="141"/>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="141"/>
-      <c r="AT1" s="141"/>
-      <c r="AU1" s="142" t="s">
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="137"/>
+      <c r="AO1" s="137"/>
+      <c r="AP1" s="137"/>
+      <c r="AQ1" s="137"/>
+      <c r="AR1" s="137"/>
+      <c r="AS1" s="137"/>
+      <c r="AT1" s="137"/>
+      <c r="AU1" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="132">
+      <c r="AV1" s="139"/>
+      <c r="AW1" s="128">
         <v>7</v>
       </c>
-      <c r="AX1" s="133"/>
-      <c r="AY1" s="134"/>
+      <c r="AX1" s="129"/>
+      <c r="AY1" s="130"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="138" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="139" t="s">
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="139"/>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="139"/>
-      <c r="AH2" s="138" t="s">
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="140" t="s">
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="144"/>
-      <c r="AV2" s="145"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="137"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="141"/>
+      <c r="AW2" s="131"/>
+      <c r="AX2" s="132"/>
+      <c r="AY2" s="133"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="147"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="124"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -25207,57 +25135,57 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="125" t="s">
+      <c r="M6" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="126"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="126"/>
-      <c r="AO6" s="127"/>
-      <c r="AP6" s="128" t="s">
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="145"/>
+      <c r="AA6" s="145"/>
+      <c r="AB6" s="145"/>
+      <c r="AC6" s="145"/>
+      <c r="AD6" s="145"/>
+      <c r="AE6" s="145"/>
+      <c r="AF6" s="145"/>
+      <c r="AG6" s="145"/>
+      <c r="AH6" s="145"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="145"/>
+      <c r="AL6" s="145"/>
+      <c r="AM6" s="145"/>
+      <c r="AN6" s="145"/>
+      <c r="AO6" s="146"/>
+      <c r="AP6" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="128"/>
-      <c r="AR6" s="128"/>
-      <c r="AS6" s="128"/>
-      <c r="AT6" s="128"/>
-      <c r="AU6" s="128"/>
-      <c r="AV6" s="128"/>
-      <c r="AW6" s="128"/>
-      <c r="AX6" s="128"/>
-      <c r="AY6" s="129"/>
+      <c r="AQ6" s="147"/>
+      <c r="AR6" s="147"/>
+      <c r="AS6" s="147"/>
+      <c r="AT6" s="147"/>
+      <c r="AU6" s="147"/>
+      <c r="AV6" s="147"/>
+      <c r="AW6" s="147"/>
+      <c r="AX6" s="147"/>
+      <c r="AY6" s="148"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="130">
+      <c r="A7" s="149">
         <v>1</v>
       </c>
-      <c r="B7" s="131"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -25381,7 +25309,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
@@ -25421,12 +25349,12 @@
       <c r="AY9" s="25"/>
     </row>
     <row r="10" spans="1:51" ht="12" customHeight="1">
-      <c r="A10" s="130">
+      <c r="A10" s="149">
         <v>2</v>
       </c>
-      <c r="B10" s="131"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25590,12 +25518,12 @@
       <c r="AY12" s="25"/>
     </row>
     <row r="13" spans="1:51" ht="12" customHeight="1">
-      <c r="A13" s="130">
+      <c r="A13" s="149">
         <v>3</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -25719,7 +25647,7 @@
       <c r="M15" s="41"/>
       <c r="N15" s="60"/>
       <c r="O15" s="60" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P15" s="23"/>
       <c r="Q15" s="23"/>
@@ -25814,12 +25742,12 @@
       <c r="AY16" s="25"/>
     </row>
     <row r="17" spans="1:51" ht="12" customHeight="1">
-      <c r="A17" s="130">
+      <c r="A17" s="149">
         <v>4</v>
       </c>
-      <c r="B17" s="131"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -25943,7 +25871,7 @@
       <c r="M19" s="41"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P19" s="23"/>
       <c r="Q19" s="23"/>
@@ -25983,12 +25911,12 @@
       <c r="AY19" s="25"/>
     </row>
     <row r="20" spans="1:51" ht="12" customHeight="1">
-      <c r="A20" s="130">
+      <c r="A20" s="149">
         <v>5</v>
       </c>
-      <c r="B20" s="131"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -26152,12 +26080,12 @@
       <c r="AY22" s="25"/>
     </row>
     <row r="23" spans="1:51" ht="12" customHeight="1">
-      <c r="A23" s="130">
+      <c r="A23" s="149">
         <v>6</v>
       </c>
-      <c r="B23" s="131"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -26281,7 +26209,7 @@
       <c r="M25" s="41"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P25" s="23"/>
       <c r="Q25" s="23"/>
@@ -26376,12 +26304,12 @@
       <c r="AY26" s="25"/>
     </row>
     <row r="27" spans="1:51" ht="12" customHeight="1">
-      <c r="A27" s="130">
+      <c r="A27" s="149">
         <v>7</v>
       </c>
-      <c r="B27" s="131"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -26505,7 +26433,7 @@
       <c r="M29" s="41"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P29" s="23"/>
       <c r="Q29" s="23"/>
@@ -26545,12 +26473,12 @@
       <c r="AY29" s="25"/>
     </row>
     <row r="30" spans="1:51" ht="12" customHeight="1">
-      <c r="A30" s="130">
+      <c r="A30" s="149">
         <v>8</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="150"/>
       <c r="C30" s="40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -26674,7 +26602,7 @@
       <c r="M32" s="41"/>
       <c r="N32" s="23"/>
       <c r="O32" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
@@ -27244,59 +27172,59 @@
       <c r="AY42" s="28"/>
     </row>
     <row r="43" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A43" s="120" t="s">
+      <c r="A43" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="121"/>
-      <c r="R43" s="121"/>
-      <c r="S43" s="121"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="121"/>
-      <c r="V43" s="121"/>
-      <c r="W43" s="121"/>
-      <c r="X43" s="121"/>
-      <c r="Y43" s="121"/>
-      <c r="Z43" s="121"/>
-      <c r="AA43" s="121"/>
-      <c r="AB43" s="121"/>
-      <c r="AC43" s="121"/>
-      <c r="AD43" s="121"/>
-      <c r="AE43" s="121"/>
-      <c r="AF43" s="121"/>
-      <c r="AG43" s="121"/>
-      <c r="AH43" s="121"/>
-      <c r="AI43" s="121"/>
-      <c r="AJ43" s="121"/>
-      <c r="AK43" s="121"/>
-      <c r="AL43" s="121"/>
-      <c r="AM43" s="121"/>
-      <c r="AN43" s="121"/>
-      <c r="AO43" s="121"/>
-      <c r="AP43" s="121"/>
-      <c r="AQ43" s="121"/>
-      <c r="AR43" s="121"/>
-      <c r="AS43" s="121"/>
-      <c r="AT43" s="121"/>
-      <c r="AU43" s="121"/>
-      <c r="AV43" s="121"/>
-      <c r="AW43" s="121"/>
-      <c r="AX43" s="121"/>
-      <c r="AY43" s="122"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
+      <c r="K43" s="154"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
+      <c r="N43" s="154"/>
+      <c r="O43" s="154"/>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="154"/>
+      <c r="R43" s="154"/>
+      <c r="S43" s="154"/>
+      <c r="T43" s="154"/>
+      <c r="U43" s="154"/>
+      <c r="V43" s="154"/>
+      <c r="W43" s="154"/>
+      <c r="X43" s="154"/>
+      <c r="Y43" s="154"/>
+      <c r="Z43" s="154"/>
+      <c r="AA43" s="154"/>
+      <c r="AB43" s="154"/>
+      <c r="AC43" s="154"/>
+      <c r="AD43" s="154"/>
+      <c r="AE43" s="154"/>
+      <c r="AF43" s="154"/>
+      <c r="AG43" s="154"/>
+      <c r="AH43" s="154"/>
+      <c r="AI43" s="154"/>
+      <c r="AJ43" s="154"/>
+      <c r="AK43" s="154"/>
+      <c r="AL43" s="154"/>
+      <c r="AM43" s="154"/>
+      <c r="AN43" s="154"/>
+      <c r="AO43" s="154"/>
+      <c r="AP43" s="154"/>
+      <c r="AQ43" s="154"/>
+      <c r="AR43" s="154"/>
+      <c r="AS43" s="154"/>
+      <c r="AT43" s="154"/>
+      <c r="AU43" s="154"/>
+      <c r="AV43" s="154"/>
+      <c r="AW43" s="154"/>
+      <c r="AX43" s="154"/>
+      <c r="AY43" s="155"/>
     </row>
     <row r="44" spans="1:51" ht="10.5" customHeight="1">
       <c r="A44" s="35"/>
@@ -27512,6 +27440,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A43:AY43"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
     <mergeCell ref="AP6:AY6"/>
@@ -27528,14 +27464,6 @@
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A43:AY43"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -27562,165 +27490,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="148" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="154" t="s">
+      <c r="A1" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="155" t="s">
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="155"/>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="155"/>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="155"/>
-      <c r="AH1" s="154" t="s">
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="154"/>
-      <c r="AJ1" s="154"/>
-      <c r="AK1" s="154"/>
-      <c r="AL1" s="141">
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="137">
         <v>42887</v>
       </c>
-      <c r="AM1" s="141"/>
-      <c r="AN1" s="141"/>
-      <c r="AO1" s="141"/>
-      <c r="AP1" s="141"/>
-      <c r="AQ1" s="141"/>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="141"/>
-      <c r="AT1" s="141"/>
-      <c r="AU1" s="142" t="s">
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="137"/>
+      <c r="AO1" s="137"/>
+      <c r="AP1" s="137"/>
+      <c r="AQ1" s="137"/>
+      <c r="AR1" s="137"/>
+      <c r="AS1" s="137"/>
+      <c r="AT1" s="137"/>
+      <c r="AU1" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="132">
+      <c r="AV1" s="139"/>
+      <c r="AW1" s="128">
         <v>8</v>
       </c>
-      <c r="AX1" s="133"/>
-      <c r="AY1" s="134"/>
+      <c r="AX1" s="129"/>
+      <c r="AY1" s="130"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="138" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="139" t="s">
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="139"/>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="139"/>
-      <c r="AH2" s="138" t="s">
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="140" t="s">
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="144"/>
-      <c r="AV2" s="145"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="137"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="141"/>
+      <c r="AW2" s="131"/>
+      <c r="AX2" s="132"/>
+      <c r="AY2" s="133"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="147"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="124"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
@@ -27733,55 +27661,55 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="125" t="s">
+      <c r="M6" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="126"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="126"/>
-      <c r="AO6" s="127"/>
-      <c r="AP6" s="128" t="s">
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="145"/>
+      <c r="AA6" s="145"/>
+      <c r="AB6" s="145"/>
+      <c r="AC6" s="145"/>
+      <c r="AD6" s="145"/>
+      <c r="AE6" s="145"/>
+      <c r="AF6" s="145"/>
+      <c r="AG6" s="145"/>
+      <c r="AH6" s="145"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="145"/>
+      <c r="AL6" s="145"/>
+      <c r="AM6" s="145"/>
+      <c r="AN6" s="145"/>
+      <c r="AO6" s="146"/>
+      <c r="AP6" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="128"/>
-      <c r="AR6" s="128"/>
-      <c r="AS6" s="128"/>
-      <c r="AT6" s="128"/>
-      <c r="AU6" s="128"/>
-      <c r="AV6" s="128"/>
-      <c r="AW6" s="128"/>
-      <c r="AX6" s="128"/>
-      <c r="AY6" s="129"/>
+      <c r="AQ6" s="147"/>
+      <c r="AR6" s="147"/>
+      <c r="AS6" s="147"/>
+      <c r="AT6" s="147"/>
+      <c r="AU6" s="147"/>
+      <c r="AV6" s="147"/>
+      <c r="AW6" s="147"/>
+      <c r="AX6" s="147"/>
+      <c r="AY6" s="148"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="130">
+      <c r="A7" s="149">
         <v>1</v>
       </c>
-      <c r="B7" s="131"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="40" t="s">
         <v>61</v>
       </c>
@@ -27907,7 +27835,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="52"/>
       <c r="O9" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
@@ -28002,10 +27930,10 @@
       <c r="AY10" s="25"/>
     </row>
     <row r="11" spans="1:51" ht="12" customHeight="1">
-      <c r="A11" s="130">
+      <c r="A11" s="149">
         <v>2</v>
       </c>
-      <c r="B11" s="131"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="40" t="s">
         <v>62</v>
       </c>
@@ -28131,7 +28059,7 @@
       <c r="M13" s="41"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P13" s="23"/>
       <c r="Q13" s="23"/>
@@ -28226,12 +28154,12 @@
       <c r="AY14" s="25"/>
     </row>
     <row r="15" spans="1:51" ht="12" customHeight="1">
-      <c r="A15" s="130">
+      <c r="A15" s="149">
         <v>3</v>
       </c>
-      <c r="B15" s="131"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -28355,7 +28283,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
@@ -28395,12 +28323,12 @@
       <c r="AY17" s="25"/>
     </row>
     <row r="18" spans="1:51" ht="12" customHeight="1">
-      <c r="A18" s="130">
+      <c r="A18" s="149">
         <v>4</v>
       </c>
-      <c r="B18" s="131"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -28509,12 +28437,12 @@
       <c r="AY19" s="25"/>
     </row>
     <row r="20" spans="1:51" ht="12" customHeight="1">
-      <c r="A20" s="130">
+      <c r="A20" s="149">
         <v>5</v>
       </c>
-      <c r="B20" s="131"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -28638,7 +28566,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P22" s="23"/>
       <c r="Q22" s="23"/>
@@ -28733,12 +28661,12 @@
       <c r="AY23" s="25"/>
     </row>
     <row r="24" spans="1:51" ht="12" customHeight="1">
-      <c r="A24" s="130">
+      <c r="A24" s="149">
         <v>6</v>
       </c>
-      <c r="B24" s="131"/>
+      <c r="B24" s="150"/>
       <c r="C24" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -28862,7 +28790,7 @@
       <c r="M26" s="41"/>
       <c r="N26" s="23"/>
       <c r="O26" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P26" s="23"/>
       <c r="Q26" s="23"/>
@@ -28902,12 +28830,12 @@
       <c r="AY26" s="25"/>
     </row>
     <row r="27" spans="1:51" ht="12" customHeight="1">
-      <c r="A27" s="130">
+      <c r="A27" s="149">
         <v>7</v>
       </c>
-      <c r="B27" s="131"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -29031,7 +28959,7 @@
       <c r="M29" s="41"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P29" s="23"/>
       <c r="Q29" s="23"/>
@@ -29760,59 +29688,59 @@
       <c r="AY42" s="28"/>
     </row>
     <row r="43" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A43" s="120" t="s">
+      <c r="A43" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="121"/>
-      <c r="R43" s="121"/>
-      <c r="S43" s="121"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="121"/>
-      <c r="V43" s="121"/>
-      <c r="W43" s="121"/>
-      <c r="X43" s="121"/>
-      <c r="Y43" s="121"/>
-      <c r="Z43" s="121"/>
-      <c r="AA43" s="121"/>
-      <c r="AB43" s="121"/>
-      <c r="AC43" s="121"/>
-      <c r="AD43" s="121"/>
-      <c r="AE43" s="121"/>
-      <c r="AF43" s="121"/>
-      <c r="AG43" s="121"/>
-      <c r="AH43" s="121"/>
-      <c r="AI43" s="121"/>
-      <c r="AJ43" s="121"/>
-      <c r="AK43" s="121"/>
-      <c r="AL43" s="121"/>
-      <c r="AM43" s="121"/>
-      <c r="AN43" s="121"/>
-      <c r="AO43" s="121"/>
-      <c r="AP43" s="121"/>
-      <c r="AQ43" s="121"/>
-      <c r="AR43" s="121"/>
-      <c r="AS43" s="121"/>
-      <c r="AT43" s="121"/>
-      <c r="AU43" s="121"/>
-      <c r="AV43" s="121"/>
-      <c r="AW43" s="121"/>
-      <c r="AX43" s="121"/>
-      <c r="AY43" s="122"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
+      <c r="K43" s="154"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
+      <c r="N43" s="154"/>
+      <c r="O43" s="154"/>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="154"/>
+      <c r="R43" s="154"/>
+      <c r="S43" s="154"/>
+      <c r="T43" s="154"/>
+      <c r="U43" s="154"/>
+      <c r="V43" s="154"/>
+      <c r="W43" s="154"/>
+      <c r="X43" s="154"/>
+      <c r="Y43" s="154"/>
+      <c r="Z43" s="154"/>
+      <c r="AA43" s="154"/>
+      <c r="AB43" s="154"/>
+      <c r="AC43" s="154"/>
+      <c r="AD43" s="154"/>
+      <c r="AE43" s="154"/>
+      <c r="AF43" s="154"/>
+      <c r="AG43" s="154"/>
+      <c r="AH43" s="154"/>
+      <c r="AI43" s="154"/>
+      <c r="AJ43" s="154"/>
+      <c r="AK43" s="154"/>
+      <c r="AL43" s="154"/>
+      <c r="AM43" s="154"/>
+      <c r="AN43" s="154"/>
+      <c r="AO43" s="154"/>
+      <c r="AP43" s="154"/>
+      <c r="AQ43" s="154"/>
+      <c r="AR43" s="154"/>
+      <c r="AS43" s="154"/>
+      <c r="AT43" s="154"/>
+      <c r="AU43" s="154"/>
+      <c r="AV43" s="154"/>
+      <c r="AW43" s="154"/>
+      <c r="AX43" s="154"/>
+      <c r="AY43" s="155"/>
     </row>
     <row r="44" spans="1:51" ht="10.5" customHeight="1">
       <c r="A44" s="35"/>
@@ -30028,6 +29956,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A43:AY43"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
     <mergeCell ref="AP6:AY6"/>
@@ -30044,13 +29979,6 @@
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A43:AY43"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
